--- a/EXCEL TASK 2.xlsx
+++ b/EXCEL TASK 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Excel Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECE466A-E3A8-46DA-8112-01BA43A3C4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E505646-5FAE-49D6-941C-5F63678456CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AEC4C063-1977-4164-8E61-5B23670E5A4E}"/>
   </bookViews>
@@ -710,9 +710,9 @@
   <dimension ref="A1:P701"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="topRight" activeCell="O24" sqref="O24:R33"/>
+      <selection pane="topRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1120,7 +1120,7 @@
         <v>48</v>
       </c>
       <c r="P9" s="5">
-        <v>0</v>
+        <v>9205248.2400000021</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
@@ -29578,7 +29578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3CE8F8-B899-4118-94EA-3E8094796812}">
   <dimension ref="A1:L701"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Q68" sqref="Q68"/>
     </sheetView>
   </sheetViews>

--- a/EXCEL TASK 2.xlsx
+++ b/EXCEL TASK 2.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Excel Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E505646-5FAE-49D6-941C-5F63678456CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5735B3-EC80-4A49-99EC-980A1B2EA3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AEC4C063-1977-4164-8E61-5B23670E5A4E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="TASK2" sheetId="1" r:id="rId1"/>
+    <sheet name="TASK3" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$1:$J$701</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TASK2!$J$1:$J$701</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,30 +37,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7045" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7745" uniqueCount="63">
   <si>
     <t>Segment</t>
   </si>
@@ -246,6 +224,9 @@
   </si>
   <si>
     <t>Total Revenue generated from Sales of montana in Canada</t>
+  </si>
+  <si>
+    <t>High Sales</t>
   </si>
 </sst>
 </file>
@@ -712,18 +693,17 @@
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="topRight" activeCell="P9" sqref="P9"/>
+      <selection pane="topRight" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="13" max="13" width="11.81640625" customWidth="1"/>
     <col min="14" max="14" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="44.81640625" customWidth="1"/>
     <col min="16" max="16" width="21.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,9 +781,14 @@
       <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="str" cm="1">
-        <f t="array" ref="M2:M701">IF(J2:J701&gt;P12,"High Sales","Low Sales")</f>
-        <v>High Sales</v>
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="3">
+        <v>169609.07179999989</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -843,11 +828,17 @@
       <c r="L3" t="s">
         <v>16</v>
       </c>
-      <c r="M3" t="str">
-        <v>High Sales</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="5">
+        <v>1608.2942857142857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -884,8 +875,14 @@
       <c r="L4" t="s">
         <v>20</v>
       </c>
-      <c r="M4" t="str">
-        <v>High Sales</v>
+      <c r="M4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="5">
+        <v>118726350.25999992</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -925,14 +922,14 @@
       <c r="L5" t="s">
         <v>20</v>
       </c>
-      <c r="M5" t="str">
-        <v>High Sales</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="3">
-        <v>169609.07179999989</v>
+      <c r="M5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="5">
+        <v>16893702.260000009</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
@@ -972,14 +969,14 @@
       <c r="L6" t="s">
         <v>20</v>
       </c>
-      <c r="M6" t="str">
-        <v>High Sales</v>
+      <c r="M6" t="s">
+        <v>62</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P6" s="5">
-        <v>1608.2942857142857</v>
+        <v>9205248.2400000021</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -1019,14 +1016,14 @@
       <c r="L7" t="s">
         <v>22</v>
       </c>
-      <c r="M7" t="str">
-        <v>High Sales</v>
+      <c r="M7" t="s">
+        <v>62</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P7" s="5">
-        <v>118726350.25999992</v>
+        <v>700</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
@@ -1066,17 +1063,17 @@
       <c r="L8" t="s">
         <v>24</v>
       </c>
-      <c r="M8" t="str">
-        <v>High Sales</v>
+      <c r="M8" t="s">
+        <v>62</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="P8" s="5">
-        <v>16893702.260000009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+        <v>262200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1113,15 +1110,11 @@
       <c r="L9" t="s">
         <v>20</v>
       </c>
-      <c r="M9" t="str">
-        <v>High Sales</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P9" s="5">
-        <v>9205248.2400000021</v>
-      </c>
+      <c r="M9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1160,14 +1153,8 @@
       <c r="L10" t="s">
         <v>20</v>
       </c>
-      <c r="M10" t="str">
-        <v>High Sales</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P10" s="5">
-        <v>700</v>
+      <c r="M10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
@@ -1207,14 +1194,8 @@
       <c r="L11" t="s">
         <v>20</v>
       </c>
-      <c r="M11" t="str">
-        <v>High Sales</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P11" s="5">
-        <v>262200</v>
+      <c r="M11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -1254,11 +1235,9 @@
       <c r="L12" t="s">
         <v>20</v>
       </c>
-      <c r="M12" t="str">
-        <v>High Sales</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="5"/>
+      <c r="M12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -1297,14 +1276,8 @@
       <c r="L13" t="s">
         <v>27</v>
       </c>
-      <c r="M13" t="str">
-        <v>High Sales</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P13" s="5">
-        <v>4492.5</v>
+      <c r="M13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
@@ -1344,14 +1317,8 @@
       <c r="L14" t="s">
         <v>29</v>
       </c>
-      <c r="M14" t="str">
-        <v>High Sales</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>32</v>
+      <c r="M14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
@@ -1391,14 +1358,8 @@
       <c r="L15" t="s">
         <v>30</v>
       </c>
-      <c r="M15" t="str">
-        <v>High Sales</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>12</v>
+      <c r="M15" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
@@ -1438,17 +1399,11 @@
       <c r="L16" t="s">
         <v>31</v>
       </c>
-      <c r="M16" t="str">
-        <v>High Sales</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1485,17 +1440,11 @@
       <c r="L17" t="s">
         <v>22</v>
       </c>
-      <c r="M17" t="str">
-        <v>High Sales</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P17" s="5">
-        <v>2717329.9799999991</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1532,17 +1481,11 @@
       <c r="L18" t="s">
         <v>34</v>
       </c>
-      <c r="M18" t="str">
-        <v>High Sales</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="P18" s="5">
-        <v>163421.50470297036</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1579,17 +1522,11 @@
       <c r="L19" t="s">
         <v>34</v>
       </c>
-      <c r="M19" t="str">
-        <v>High Sales</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="P19" s="5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1626,17 +1563,11 @@
       <c r="L20" t="s">
         <v>20</v>
       </c>
-      <c r="M20" t="str">
-        <v>High Sales</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="P20" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1673,17 +1604,11 @@
       <c r="L21" t="s">
         <v>20</v>
       </c>
-      <c r="M21" t="str">
-        <v>High Sales</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P21" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1720,17 +1645,11 @@
       <c r="L22" t="s">
         <v>27</v>
       </c>
-      <c r="M22" t="str">
-        <v>High Sales</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P22" s="7">
-        <v>2711919.0300000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1767,11 +1686,11 @@
       <c r="L23" t="s">
         <v>29</v>
       </c>
-      <c r="M23" t="str">
-        <v>High Sales</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1808,11 +1727,11 @@
       <c r="L24" t="s">
         <v>30</v>
       </c>
-      <c r="M24" t="str">
-        <v>High Sales</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1849,11 +1768,11 @@
       <c r="L25" t="s">
         <v>30</v>
       </c>
-      <c r="M25" t="str">
-        <v>High Sales</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1890,11 +1809,11 @@
       <c r="L26" t="s">
         <v>30</v>
       </c>
-      <c r="M26" t="str">
-        <v>High Sales</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1931,11 +1850,11 @@
       <c r="L27" t="s">
         <v>31</v>
       </c>
-      <c r="M27" t="str">
-        <v>High Sales</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1972,11 +1891,11 @@
       <c r="L28" t="s">
         <v>35</v>
       </c>
-      <c r="M28" t="str">
-        <v>High Sales</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -2013,11 +1932,11 @@
       <c r="L29" t="s">
         <v>35</v>
       </c>
-      <c r="M29" t="str">
-        <v>High Sales</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -2054,11 +1973,11 @@
       <c r="L30" t="s">
         <v>22</v>
       </c>
-      <c r="M30" t="str">
-        <v>High Sales</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -2095,11 +2014,11 @@
       <c r="L31" t="s">
         <v>22</v>
       </c>
-      <c r="M31" t="str">
-        <v>High Sales</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -2136,8 +2055,8 @@
       <c r="L32" t="s">
         <v>22</v>
       </c>
-      <c r="M32" t="str">
-        <v>High Sales</v>
+      <c r="M32" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -2177,8 +2096,8 @@
       <c r="L33" t="s">
         <v>16</v>
       </c>
-      <c r="M33" t="str">
-        <v>High Sales</v>
+      <c r="M33" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -2218,8 +2137,8 @@
       <c r="L34" t="s">
         <v>34</v>
       </c>
-      <c r="M34" t="str">
-        <v>High Sales</v>
+      <c r="M34" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
@@ -2259,8 +2178,8 @@
       <c r="L35" t="s">
         <v>24</v>
       </c>
-      <c r="M35" t="str">
-        <v>High Sales</v>
+      <c r="M35" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -2300,8 +2219,8 @@
       <c r="L36" t="s">
         <v>20</v>
       </c>
-      <c r="M36" t="str">
-        <v>High Sales</v>
+      <c r="M36" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -2341,8 +2260,8 @@
       <c r="L37" t="s">
         <v>20</v>
       </c>
-      <c r="M37" t="str">
-        <v>High Sales</v>
+      <c r="M37" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -2382,8 +2301,8 @@
       <c r="L38" t="s">
         <v>29</v>
       </c>
-      <c r="M38" t="str">
-        <v>High Sales</v>
+      <c r="M38" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
@@ -2423,8 +2342,8 @@
       <c r="L39" t="s">
         <v>31</v>
       </c>
-      <c r="M39" t="str">
-        <v>High Sales</v>
+      <c r="M39" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
@@ -2464,8 +2383,8 @@
       <c r="L40" t="s">
         <v>34</v>
       </c>
-      <c r="M40" t="str">
-        <v>High Sales</v>
+      <c r="M40" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
@@ -2505,8 +2424,8 @@
       <c r="L41" t="s">
         <v>38</v>
       </c>
-      <c r="M41" t="str">
-        <v>High Sales</v>
+      <c r="M41" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
@@ -2546,8 +2465,8 @@
       <c r="L42" t="s">
         <v>20</v>
       </c>
-      <c r="M42" t="str">
-        <v>High Sales</v>
+      <c r="M42" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
@@ -2587,8 +2506,8 @@
       <c r="L43" t="s">
         <v>20</v>
       </c>
-      <c r="M43" t="str">
-        <v>High Sales</v>
+      <c r="M43" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
@@ -2628,8 +2547,8 @@
       <c r="L44" t="s">
         <v>30</v>
       </c>
-      <c r="M44" t="str">
-        <v>High Sales</v>
+      <c r="M44" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
@@ -2669,8 +2588,8 @@
       <c r="L45" t="s">
         <v>30</v>
       </c>
-      <c r="M45" t="str">
-        <v>High Sales</v>
+      <c r="M45" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
@@ -2710,8 +2629,8 @@
       <c r="L46" t="s">
         <v>22</v>
       </c>
-      <c r="M46" t="str">
-        <v>High Sales</v>
+      <c r="M46" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -2751,8 +2670,8 @@
       <c r="L47" t="s">
         <v>34</v>
       </c>
-      <c r="M47" t="str">
-        <v>High Sales</v>
+      <c r="M47" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
@@ -2792,8 +2711,8 @@
       <c r="L48" t="s">
         <v>38</v>
       </c>
-      <c r="M48" t="str">
-        <v>High Sales</v>
+      <c r="M48" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
@@ -2833,8 +2752,8 @@
       <c r="L49" t="s">
         <v>38</v>
       </c>
-      <c r="M49" t="str">
-        <v>High Sales</v>
+      <c r="M49" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
@@ -2874,8 +2793,8 @@
       <c r="L50" t="s">
         <v>20</v>
       </c>
-      <c r="M50" t="str">
-        <v>High Sales</v>
+      <c r="M50" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
@@ -2915,8 +2834,8 @@
       <c r="L51" t="s">
         <v>27</v>
       </c>
-      <c r="M51" t="str">
-        <v>High Sales</v>
+      <c r="M51" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
@@ -2956,8 +2875,8 @@
       <c r="L52" t="s">
         <v>29</v>
       </c>
-      <c r="M52" t="str">
-        <v>High Sales</v>
+      <c r="M52" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
@@ -2997,8 +2916,8 @@
       <c r="L53" t="s">
         <v>31</v>
       </c>
-      <c r="M53" t="str">
-        <v>High Sales</v>
+      <c r="M53" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
@@ -3038,8 +2957,8 @@
       <c r="L54" t="s">
         <v>22</v>
       </c>
-      <c r="M54" t="str">
-        <v>High Sales</v>
+      <c r="M54" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
@@ -3079,8 +2998,8 @@
       <c r="L55" t="s">
         <v>16</v>
       </c>
-      <c r="M55" t="str">
-        <v>High Sales</v>
+      <c r="M55" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
@@ -3120,8 +3039,8 @@
       <c r="L56" t="s">
         <v>34</v>
       </c>
-      <c r="M56" t="str">
-        <v>High Sales</v>
+      <c r="M56" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
@@ -3161,8 +3080,8 @@
       <c r="L57" t="s">
         <v>41</v>
       </c>
-      <c r="M57" t="str">
-        <v>High Sales</v>
+      <c r="M57" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
@@ -3202,8 +3121,8 @@
       <c r="L58" t="s">
         <v>35</v>
       </c>
-      <c r="M58" t="str">
-        <v>High Sales</v>
+      <c r="M58" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
@@ -3243,8 +3162,8 @@
       <c r="L59" t="s">
         <v>24</v>
       </c>
-      <c r="M59" t="str">
-        <v>High Sales</v>
+      <c r="M59" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
@@ -3284,8 +3203,8 @@
       <c r="L60" t="s">
         <v>34</v>
       </c>
-      <c r="M60" t="str">
-        <v>High Sales</v>
+      <c r="M60" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
@@ -3325,8 +3244,8 @@
       <c r="L61" t="s">
         <v>24</v>
       </c>
-      <c r="M61" t="str">
-        <v>High Sales</v>
+      <c r="M61" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
@@ -3366,8 +3285,8 @@
       <c r="L62" t="s">
         <v>27</v>
       </c>
-      <c r="M62" t="str">
-        <v>High Sales</v>
+      <c r="M62" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
@@ -3407,8 +3326,8 @@
       <c r="L63" t="s">
         <v>30</v>
       </c>
-      <c r="M63" t="str">
-        <v>High Sales</v>
+      <c r="M63" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
@@ -3448,8 +3367,8 @@
       <c r="L64" t="s">
         <v>30</v>
       </c>
-      <c r="M64" t="str">
-        <v>High Sales</v>
+      <c r="M64" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
@@ -3489,8 +3408,8 @@
       <c r="L65" t="s">
         <v>30</v>
       </c>
-      <c r="M65" t="str">
-        <v>High Sales</v>
+      <c r="M65" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
@@ -3530,8 +3449,8 @@
       <c r="L66" t="s">
         <v>31</v>
       </c>
-      <c r="M66" t="str">
-        <v>High Sales</v>
+      <c r="M66" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
@@ -3571,8 +3490,8 @@
       <c r="L67" t="s">
         <v>31</v>
       </c>
-      <c r="M67" t="str">
-        <v>High Sales</v>
+      <c r="M67" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
@@ -3612,8 +3531,8 @@
       <c r="L68" t="s">
         <v>31</v>
       </c>
-      <c r="M68" t="str">
-        <v>High Sales</v>
+      <c r="M68" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
@@ -3653,8 +3572,8 @@
       <c r="L69" t="s">
         <v>22</v>
       </c>
-      <c r="M69" t="str">
-        <v>High Sales</v>
+      <c r="M69" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
@@ -3694,8 +3613,8 @@
       <c r="L70" t="s">
         <v>24</v>
       </c>
-      <c r="M70" t="str">
-        <v>High Sales</v>
+      <c r="M70" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
@@ -3735,8 +3654,8 @@
       <c r="L71" t="s">
         <v>38</v>
       </c>
-      <c r="M71" t="str">
-        <v>High Sales</v>
+      <c r="M71" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
@@ -3776,8 +3695,8 @@
       <c r="L72" t="s">
         <v>27</v>
       </c>
-      <c r="M72" t="str">
-        <v>High Sales</v>
+      <c r="M72" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
@@ -3817,8 +3736,8 @@
       <c r="L73" t="s">
         <v>29</v>
       </c>
-      <c r="M73" t="str">
-        <v>High Sales</v>
+      <c r="M73" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
@@ -3858,8 +3777,8 @@
       <c r="L74" t="s">
         <v>30</v>
       </c>
-      <c r="M74" t="str">
-        <v>High Sales</v>
+      <c r="M74" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
@@ -3899,8 +3818,8 @@
       <c r="L75" t="s">
         <v>31</v>
       </c>
-      <c r="M75" t="str">
-        <v>High Sales</v>
+      <c r="M75" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.35">
@@ -3940,8 +3859,8 @@
       <c r="L76" t="s">
         <v>34</v>
       </c>
-      <c r="M76" t="str">
-        <v>High Sales</v>
+      <c r="M76" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
@@ -3981,8 +3900,8 @@
       <c r="L77" t="s">
         <v>38</v>
       </c>
-      <c r="M77" t="str">
-        <v>High Sales</v>
+      <c r="M77" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
@@ -4022,8 +3941,8 @@
       <c r="L78" t="s">
         <v>20</v>
       </c>
-      <c r="M78" t="str">
-        <v>High Sales</v>
+      <c r="M78" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
@@ -4063,8 +3982,8 @@
       <c r="L79" t="s">
         <v>20</v>
       </c>
-      <c r="M79" t="str">
-        <v>High Sales</v>
+      <c r="M79" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.35">
@@ -4104,8 +4023,8 @@
       <c r="L80" t="s">
         <v>27</v>
       </c>
-      <c r="M80" t="str">
-        <v>High Sales</v>
+      <c r="M80" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
@@ -4145,8 +4064,8 @@
       <c r="L81" t="s">
         <v>30</v>
       </c>
-      <c r="M81" t="str">
-        <v>High Sales</v>
+      <c r="M81" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
@@ -4186,8 +4105,8 @@
       <c r="L82" t="s">
         <v>31</v>
       </c>
-      <c r="M82" t="str">
-        <v>High Sales</v>
+      <c r="M82" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
@@ -4227,8 +4146,8 @@
       <c r="L83" t="s">
         <v>35</v>
       </c>
-      <c r="M83" t="str">
-        <v>High Sales</v>
+      <c r="M83" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
@@ -4268,8 +4187,8 @@
       <c r="L84" t="s">
         <v>22</v>
       </c>
-      <c r="M84" t="str">
-        <v>High Sales</v>
+      <c r="M84" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
@@ -4309,8 +4228,8 @@
       <c r="L85" t="s">
         <v>38</v>
       </c>
-      <c r="M85" t="str">
-        <v>High Sales</v>
+      <c r="M85" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
@@ -4350,8 +4269,8 @@
       <c r="L86" t="s">
         <v>41</v>
       </c>
-      <c r="M86" t="str">
-        <v>High Sales</v>
+      <c r="M86" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
@@ -4391,8 +4310,8 @@
       <c r="L87" t="s">
         <v>29</v>
       </c>
-      <c r="M87" t="str">
-        <v>High Sales</v>
+      <c r="M87" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
@@ -4432,8 +4351,8 @@
       <c r="L88" t="s">
         <v>31</v>
       </c>
-      <c r="M88" t="str">
-        <v>High Sales</v>
+      <c r="M88" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.35">
@@ -4473,8 +4392,8 @@
       <c r="L89" t="s">
         <v>35</v>
       </c>
-      <c r="M89" t="str">
-        <v>High Sales</v>
+      <c r="M89" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.35">
@@ -4514,8 +4433,8 @@
       <c r="L90" t="s">
         <v>24</v>
       </c>
-      <c r="M90" t="str">
-        <v>High Sales</v>
+      <c r="M90" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
@@ -4555,8 +4474,8 @@
       <c r="L91" t="s">
         <v>38</v>
       </c>
-      <c r="M91" t="str">
-        <v>High Sales</v>
+      <c r="M91" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
@@ -4596,8 +4515,8 @@
       <c r="L92" t="s">
         <v>20</v>
       </c>
-      <c r="M92" t="str">
-        <v>High Sales</v>
+      <c r="M92" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
@@ -4637,8 +4556,8 @@
       <c r="L93" t="s">
         <v>20</v>
       </c>
-      <c r="M93" t="str">
-        <v>High Sales</v>
+      <c r="M93" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.35">
@@ -4678,8 +4597,8 @@
       <c r="L94" t="s">
         <v>30</v>
       </c>
-      <c r="M94" t="str">
-        <v>High Sales</v>
+      <c r="M94" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.35">
@@ -4719,8 +4638,8 @@
       <c r="L95" t="s">
         <v>31</v>
       </c>
-      <c r="M95" t="str">
-        <v>High Sales</v>
+      <c r="M95" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.35">
@@ -4760,8 +4679,8 @@
       <c r="L96" t="s">
         <v>31</v>
       </c>
-      <c r="M96" t="str">
-        <v>High Sales</v>
+      <c r="M96" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.35">
@@ -4801,8 +4720,8 @@
       <c r="L97" t="s">
         <v>35</v>
       </c>
-      <c r="M97" t="str">
-        <v>High Sales</v>
+      <c r="M97" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.35">
@@ -4842,8 +4761,8 @@
       <c r="L98" t="s">
         <v>30</v>
       </c>
-      <c r="M98" t="str">
-        <v>High Sales</v>
+      <c r="M98" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
@@ -4883,8 +4802,8 @@
       <c r="L99" t="s">
         <v>35</v>
       </c>
-      <c r="M99" t="str">
-        <v>High Sales</v>
+      <c r="M99" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
@@ -4924,8 +4843,8 @@
       <c r="L100" t="s">
         <v>38</v>
       </c>
-      <c r="M100" t="str">
-        <v>High Sales</v>
+      <c r="M100" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.35">
@@ -4965,8 +4884,8 @@
       <c r="L101" t="s">
         <v>31</v>
       </c>
-      <c r="M101" t="str">
-        <v>High Sales</v>
+      <c r="M101" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.35">
@@ -5006,8 +4925,8 @@
       <c r="L102" t="s">
         <v>31</v>
       </c>
-      <c r="M102" t="str">
-        <v>High Sales</v>
+      <c r="M102" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.35">
@@ -5047,8 +4966,8 @@
       <c r="L103" t="s">
         <v>35</v>
       </c>
-      <c r="M103" t="str">
-        <v>High Sales</v>
+      <c r="M103" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.35">
@@ -5088,8 +5007,8 @@
       <c r="L104" t="s">
         <v>22</v>
       </c>
-      <c r="M104" t="str">
-        <v>High Sales</v>
+      <c r="M104" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.35">
@@ -5129,8 +5048,8 @@
       <c r="L105" t="s">
         <v>20</v>
       </c>
-      <c r="M105" t="str">
-        <v>High Sales</v>
+      <c r="M105" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.35">
@@ -5170,8 +5089,8 @@
       <c r="L106" t="s">
         <v>31</v>
       </c>
-      <c r="M106" t="str">
-        <v>High Sales</v>
+      <c r="M106" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.35">
@@ -5211,8 +5130,8 @@
       <c r="L107" t="s">
         <v>35</v>
       </c>
-      <c r="M107" t="str">
-        <v>High Sales</v>
+      <c r="M107" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.35">
@@ -5252,8 +5171,8 @@
       <c r="L108" t="s">
         <v>35</v>
       </c>
-      <c r="M108" t="str">
-        <v>High Sales</v>
+      <c r="M108" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.35">
@@ -5293,8 +5212,8 @@
       <c r="L109" t="s">
         <v>34</v>
       </c>
-      <c r="M109" t="str">
-        <v>High Sales</v>
+      <c r="M109" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
@@ -5334,8 +5253,8 @@
       <c r="L110" t="s">
         <v>41</v>
       </c>
-      <c r="M110" t="str">
-        <v>High Sales</v>
+      <c r="M110" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.35">
@@ -5375,8 +5294,8 @@
       <c r="L111" t="s">
         <v>41</v>
       </c>
-      <c r="M111" t="str">
-        <v>High Sales</v>
+      <c r="M111" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.35">
@@ -5416,8 +5335,8 @@
       <c r="L112" t="s">
         <v>20</v>
       </c>
-      <c r="M112" t="str">
-        <v>High Sales</v>
+      <c r="M112" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.35">
@@ -5457,8 +5376,8 @@
       <c r="L113" t="s">
         <v>20</v>
       </c>
-      <c r="M113" t="str">
-        <v>High Sales</v>
+      <c r="M113" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.35">
@@ -5498,8 +5417,8 @@
       <c r="L114" t="s">
         <v>31</v>
       </c>
-      <c r="M114" t="str">
-        <v>High Sales</v>
+      <c r="M114" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.35">
@@ -5539,8 +5458,8 @@
       <c r="L115" t="s">
         <v>31</v>
       </c>
-      <c r="M115" t="str">
-        <v>High Sales</v>
+      <c r="M115" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.35">
@@ -5580,8 +5499,8 @@
       <c r="L116" t="s">
         <v>31</v>
       </c>
-      <c r="M116" t="str">
-        <v>High Sales</v>
+      <c r="M116" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.35">
@@ -5621,8 +5540,8 @@
       <c r="L117" t="s">
         <v>35</v>
       </c>
-      <c r="M117" t="str">
-        <v>High Sales</v>
+      <c r="M117" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.35">
@@ -5662,8 +5581,8 @@
       <c r="L118" t="s">
         <v>22</v>
       </c>
-      <c r="M118" t="str">
-        <v>High Sales</v>
+      <c r="M118" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.35">
@@ -5703,8 +5622,8 @@
       <c r="L119" t="s">
         <v>22</v>
       </c>
-      <c r="M119" t="str">
-        <v>High Sales</v>
+      <c r="M119" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.35">
@@ -5744,8 +5663,8 @@
       <c r="L120" t="s">
         <v>22</v>
       </c>
-      <c r="M120" t="str">
-        <v>High Sales</v>
+      <c r="M120" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.35">
@@ -5785,8 +5704,8 @@
       <c r="L121" t="s">
         <v>22</v>
       </c>
-      <c r="M121" t="str">
-        <v>High Sales</v>
+      <c r="M121" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.35">
@@ -5826,8 +5745,8 @@
       <c r="L122" t="s">
         <v>22</v>
       </c>
-      <c r="M122" t="str">
-        <v>High Sales</v>
+      <c r="M122" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.35">
@@ -5867,8 +5786,8 @@
       <c r="L123" t="s">
         <v>22</v>
       </c>
-      <c r="M123" t="str">
-        <v>High Sales</v>
+      <c r="M123" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.35">
@@ -5908,8 +5827,8 @@
       <c r="L124" t="s">
         <v>22</v>
       </c>
-      <c r="M124" t="str">
-        <v>High Sales</v>
+      <c r="M124" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.35">
@@ -5949,8 +5868,8 @@
       <c r="L125" t="s">
         <v>31</v>
       </c>
-      <c r="M125" t="str">
-        <v>High Sales</v>
+      <c r="M125" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.35">
@@ -5990,8 +5909,8 @@
       <c r="L126" t="s">
         <v>31</v>
       </c>
-      <c r="M126" t="str">
-        <v>High Sales</v>
+      <c r="M126" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.35">
@@ -6031,8 +5950,8 @@
       <c r="L127" t="s">
         <v>31</v>
       </c>
-      <c r="M127" t="str">
-        <v>High Sales</v>
+      <c r="M127" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.35">
@@ -6072,8 +5991,8 @@
       <c r="L128" t="s">
         <v>31</v>
       </c>
-      <c r="M128" t="str">
-        <v>High Sales</v>
+      <c r="M128" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.35">
@@ -6113,8 +6032,8 @@
       <c r="L129" t="s">
         <v>31</v>
       </c>
-      <c r="M129" t="str">
-        <v>High Sales</v>
+      <c r="M129" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.35">
@@ -6154,8 +6073,8 @@
       <c r="L130" t="s">
         <v>22</v>
       </c>
-      <c r="M130" t="str">
-        <v>High Sales</v>
+      <c r="M130" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.35">
@@ -6195,8 +6114,8 @@
       <c r="L131" t="s">
         <v>22</v>
       </c>
-      <c r="M131" t="str">
-        <v>High Sales</v>
+      <c r="M131" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.35">
@@ -6236,8 +6155,8 @@
       <c r="L132" t="s">
         <v>22</v>
       </c>
-      <c r="M132" t="str">
-        <v>High Sales</v>
+      <c r="M132" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.35">
@@ -6277,8 +6196,8 @@
       <c r="L133" t="s">
         <v>20</v>
       </c>
-      <c r="M133" t="str">
-        <v>High Sales</v>
+      <c r="M133" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.35">
@@ -6318,8 +6237,8 @@
       <c r="L134" t="s">
         <v>31</v>
       </c>
-      <c r="M134" t="str">
-        <v>High Sales</v>
+      <c r="M134" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.35">
@@ -6359,8 +6278,8 @@
       <c r="L135" t="s">
         <v>31</v>
       </c>
-      <c r="M135" t="str">
-        <v>High Sales</v>
+      <c r="M135" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.35">
@@ -6400,8 +6319,8 @@
       <c r="L136" t="s">
         <v>22</v>
       </c>
-      <c r="M136" t="str">
-        <v>High Sales</v>
+      <c r="M136" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.35">
@@ -6441,8 +6360,8 @@
       <c r="L137" t="s">
         <v>22</v>
       </c>
-      <c r="M137" t="str">
-        <v>High Sales</v>
+      <c r="M137" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.35">
@@ -6482,8 +6401,8 @@
       <c r="L138" t="s">
         <v>22</v>
       </c>
-      <c r="M138" t="str">
-        <v>High Sales</v>
+      <c r="M138" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.35">
@@ -6523,8 +6442,8 @@
       <c r="L139" t="s">
         <v>24</v>
       </c>
-      <c r="M139" t="str">
-        <v>High Sales</v>
+      <c r="M139" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.35">
@@ -6564,8 +6483,8 @@
       <c r="L140" t="s">
         <v>24</v>
       </c>
-      <c r="M140" t="str">
-        <v>High Sales</v>
+      <c r="M140" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.35">
@@ -6605,8 +6524,8 @@
       <c r="L141" t="s">
         <v>41</v>
       </c>
-      <c r="M141" t="str">
-        <v>High Sales</v>
+      <c r="M141" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.35">
@@ -6646,8 +6565,8 @@
       <c r="L142" t="s">
         <v>31</v>
       </c>
-      <c r="M142" t="str">
-        <v>High Sales</v>
+      <c r="M142" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.35">
@@ -6687,8 +6606,8 @@
       <c r="L143" t="s">
         <v>35</v>
       </c>
-      <c r="M143" t="str">
-        <v>High Sales</v>
+      <c r="M143" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.35">
@@ -6728,8 +6647,8 @@
       <c r="L144" t="s">
         <v>35</v>
       </c>
-      <c r="M144" t="str">
-        <v>High Sales</v>
+      <c r="M144" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.35">
@@ -6769,8 +6688,8 @@
       <c r="L145" t="s">
         <v>22</v>
       </c>
-      <c r="M145" t="str">
-        <v>High Sales</v>
+      <c r="M145" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.35">
@@ -6810,8 +6729,8 @@
       <c r="L146" t="s">
         <v>38</v>
       </c>
-      <c r="M146" t="str">
-        <v>High Sales</v>
+      <c r="M146" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.35">
@@ -6851,8 +6770,8 @@
       <c r="L147" t="s">
         <v>38</v>
       </c>
-      <c r="M147" t="str">
-        <v>High Sales</v>
+      <c r="M147" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.35">
@@ -6892,8 +6811,8 @@
       <c r="L148" t="s">
         <v>20</v>
       </c>
-      <c r="M148" t="str">
-        <v>High Sales</v>
+      <c r="M148" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.35">
@@ -6933,8 +6852,8 @@
       <c r="L149" t="s">
         <v>30</v>
       </c>
-      <c r="M149" t="str">
-        <v>High Sales</v>
+      <c r="M149" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.35">
@@ -6974,8 +6893,8 @@
       <c r="L150" t="s">
         <v>22</v>
       </c>
-      <c r="M150" t="str">
-        <v>High Sales</v>
+      <c r="M150" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.35">
@@ -7015,8 +6934,8 @@
       <c r="L151" t="s">
         <v>34</v>
       </c>
-      <c r="M151" t="str">
-        <v>High Sales</v>
+      <c r="M151" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.35">
@@ -7056,8 +6975,8 @@
       <c r="L152" t="s">
         <v>20</v>
       </c>
-      <c r="M152" t="str">
-        <v>High Sales</v>
+      <c r="M152" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.35">
@@ -7097,8 +7016,8 @@
       <c r="L153" t="s">
         <v>30</v>
       </c>
-      <c r="M153" t="str">
-        <v>High Sales</v>
+      <c r="M153" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.35">
@@ -7138,8 +7057,8 @@
       <c r="L154" t="s">
         <v>30</v>
       </c>
-      <c r="M154" t="str">
-        <v>High Sales</v>
+      <c r="M154" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.35">
@@ -7179,8 +7098,8 @@
       <c r="L155" t="s">
         <v>22</v>
       </c>
-      <c r="M155" t="str">
-        <v>High Sales</v>
+      <c r="M155" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.35">
@@ -7220,8 +7139,8 @@
       <c r="L156" t="s">
         <v>22</v>
       </c>
-      <c r="M156" t="str">
-        <v>High Sales</v>
+      <c r="M156" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.35">
@@ -7261,8 +7180,8 @@
       <c r="L157" t="s">
         <v>16</v>
       </c>
-      <c r="M157" t="str">
-        <v>High Sales</v>
+      <c r="M157" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.35">
@@ -7302,8 +7221,8 @@
       <c r="L158" t="s">
         <v>24</v>
       </c>
-      <c r="M158" t="str">
-        <v>High Sales</v>
+      <c r="M158" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.35">
@@ -7343,8 +7262,8 @@
       <c r="L159" t="s">
         <v>20</v>
       </c>
-      <c r="M159" t="str">
-        <v>High Sales</v>
+      <c r="M159" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.35">
@@ -7384,8 +7303,8 @@
       <c r="L160" t="s">
         <v>20</v>
       </c>
-      <c r="M160" t="str">
-        <v>High Sales</v>
+      <c r="M160" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.35">
@@ -7425,8 +7344,8 @@
       <c r="L161" t="s">
         <v>20</v>
       </c>
-      <c r="M161" t="str">
-        <v>High Sales</v>
+      <c r="M161" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.35">
@@ -7466,8 +7385,8 @@
       <c r="L162" t="s">
         <v>27</v>
       </c>
-      <c r="M162" t="str">
-        <v>High Sales</v>
+      <c r="M162" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.35">
@@ -7507,8 +7426,8 @@
       <c r="L163" t="s">
         <v>31</v>
       </c>
-      <c r="M163" t="str">
-        <v>High Sales</v>
+      <c r="M163" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.35">
@@ -7548,8 +7467,8 @@
       <c r="L164" t="s">
         <v>31</v>
       </c>
-      <c r="M164" t="str">
-        <v>High Sales</v>
+      <c r="M164" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.35">
@@ -7589,8 +7508,8 @@
       <c r="L165" t="s">
         <v>22</v>
       </c>
-      <c r="M165" t="str">
-        <v>High Sales</v>
+      <c r="M165" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.35">
@@ -7630,8 +7549,8 @@
       <c r="L166" t="s">
         <v>22</v>
       </c>
-      <c r="M166" t="str">
-        <v>High Sales</v>
+      <c r="M166" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.35">
@@ -7671,8 +7590,8 @@
       <c r="L167" t="s">
         <v>31</v>
       </c>
-      <c r="M167" t="str">
-        <v>High Sales</v>
+      <c r="M167" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.35">
@@ -7712,8 +7631,8 @@
       <c r="L168" t="s">
         <v>34</v>
       </c>
-      <c r="M168" t="str">
-        <v>High Sales</v>
+      <c r="M168" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.35">
@@ -7753,8 +7672,8 @@
       <c r="L169" t="s">
         <v>38</v>
       </c>
-      <c r="M169" t="str">
-        <v>High Sales</v>
+      <c r="M169" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.35">
@@ -7794,8 +7713,8 @@
       <c r="L170" t="s">
         <v>20</v>
       </c>
-      <c r="M170" t="str">
-        <v>High Sales</v>
+      <c r="M170" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.35">
@@ -7835,8 +7754,8 @@
       <c r="L171" t="s">
         <v>29</v>
       </c>
-      <c r="M171" t="str">
-        <v>High Sales</v>
+      <c r="M171" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.35">
@@ -7876,8 +7795,8 @@
       <c r="L172" t="s">
         <v>29</v>
       </c>
-      <c r="M172" t="str">
-        <v>High Sales</v>
+      <c r="M172" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.35">
@@ -7917,8 +7836,8 @@
       <c r="L173" t="s">
         <v>31</v>
       </c>
-      <c r="M173" t="str">
-        <v>High Sales</v>
+      <c r="M173" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.35">
@@ -7958,8 +7877,8 @@
       <c r="L174" t="s">
         <v>41</v>
       </c>
-      <c r="M174" t="str">
-        <v>High Sales</v>
+      <c r="M174" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.35">
@@ -7999,8 +7918,8 @@
       <c r="L175" t="s">
         <v>30</v>
       </c>
-      <c r="M175" t="str">
-        <v>High Sales</v>
+      <c r="M175" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.35">
@@ -8040,8 +7959,8 @@
       <c r="L176" t="s">
         <v>38</v>
       </c>
-      <c r="M176" t="str">
-        <v>High Sales</v>
+      <c r="M176" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.35">
@@ -8081,8 +8000,8 @@
       <c r="L177" t="s">
         <v>16</v>
       </c>
-      <c r="M177" t="str">
-        <v>High Sales</v>
+      <c r="M177" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.35">
@@ -8122,8 +8041,8 @@
       <c r="L178" t="s">
         <v>31</v>
       </c>
-      <c r="M178" t="str">
-        <v>High Sales</v>
+      <c r="M178" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.35">
@@ -8163,8 +8082,8 @@
       <c r="L179" t="s">
         <v>31</v>
       </c>
-      <c r="M179" t="str">
-        <v>High Sales</v>
+      <c r="M179" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.35">
@@ -8204,8 +8123,8 @@
       <c r="L180" t="s">
         <v>22</v>
       </c>
-      <c r="M180" t="str">
-        <v>High Sales</v>
+      <c r="M180" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.35">
@@ -8245,8 +8164,8 @@
       <c r="L181" t="s">
         <v>30</v>
       </c>
-      <c r="M181" t="str">
-        <v>High Sales</v>
+      <c r="M181" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.35">
@@ -8286,8 +8205,8 @@
       <c r="L182" t="s">
         <v>31</v>
       </c>
-      <c r="M182" t="str">
-        <v>High Sales</v>
+      <c r="M182" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.35">
@@ -8327,8 +8246,8 @@
       <c r="L183" t="s">
         <v>31</v>
       </c>
-      <c r="M183" t="str">
-        <v>High Sales</v>
+      <c r="M183" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.35">
@@ -8368,8 +8287,8 @@
       <c r="L184" t="s">
         <v>22</v>
       </c>
-      <c r="M184" t="str">
-        <v>High Sales</v>
+      <c r="M184" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.35">
@@ -8409,8 +8328,8 @@
       <c r="L185" t="s">
         <v>24</v>
       </c>
-      <c r="M185" t="str">
-        <v>High Sales</v>
+      <c r="M185" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.35">
@@ -8450,8 +8369,8 @@
       <c r="L186" t="s">
         <v>29</v>
       </c>
-      <c r="M186" t="str">
-        <v>High Sales</v>
+      <c r="M186" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.35">
@@ -8491,8 +8410,8 @@
       <c r="L187" t="s">
         <v>31</v>
       </c>
-      <c r="M187" t="str">
-        <v>High Sales</v>
+      <c r="M187" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.35">
@@ -8532,8 +8451,8 @@
       <c r="L188" t="s">
         <v>31</v>
       </c>
-      <c r="M188" t="str">
-        <v>High Sales</v>
+      <c r="M188" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.35">
@@ -8573,8 +8492,8 @@
       <c r="L189" t="s">
         <v>22</v>
       </c>
-      <c r="M189" t="str">
-        <v>High Sales</v>
+      <c r="M189" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.35">
@@ -8614,8 +8533,8 @@
       <c r="L190" t="s">
         <v>16</v>
       </c>
-      <c r="M190" t="str">
-        <v>High Sales</v>
+      <c r="M190" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.35">
@@ -8655,8 +8574,8 @@
       <c r="L191" t="s">
         <v>24</v>
       </c>
-      <c r="M191" t="str">
-        <v>High Sales</v>
+      <c r="M191" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.35">
@@ -8696,8 +8615,8 @@
       <c r="L192" t="s">
         <v>38</v>
       </c>
-      <c r="M192" t="str">
-        <v>High Sales</v>
+      <c r="M192" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.35">
@@ -8737,8 +8656,8 @@
       <c r="L193" t="s">
         <v>41</v>
       </c>
-      <c r="M193" t="str">
-        <v>High Sales</v>
+      <c r="M193" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.35">
@@ -8778,8 +8697,8 @@
       <c r="L194" t="s">
         <v>27</v>
       </c>
-      <c r="M194" t="str">
-        <v>High Sales</v>
+      <c r="M194" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.35">
@@ -8819,8 +8738,8 @@
       <c r="L195" t="s">
         <v>27</v>
       </c>
-      <c r="M195" t="str">
-        <v>High Sales</v>
+      <c r="M195" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.35">
@@ -8860,8 +8779,8 @@
       <c r="L196" t="s">
         <v>30</v>
       </c>
-      <c r="M196" t="str">
-        <v>High Sales</v>
+      <c r="M196" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.35">
@@ -8901,8 +8820,8 @@
       <c r="L197" t="s">
         <v>30</v>
       </c>
-      <c r="M197" t="str">
-        <v>High Sales</v>
+      <c r="M197" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.35">
@@ -8942,8 +8861,8 @@
       <c r="L198" t="s">
         <v>30</v>
       </c>
-      <c r="M198" t="str">
-        <v>High Sales</v>
+      <c r="M198" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.35">
@@ -8983,8 +8902,8 @@
       <c r="L199" t="s">
         <v>31</v>
       </c>
-      <c r="M199" t="str">
-        <v>High Sales</v>
+      <c r="M199" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.35">
@@ -9024,8 +8943,8 @@
       <c r="L200" t="s">
         <v>31</v>
       </c>
-      <c r="M200" t="str">
-        <v>High Sales</v>
+      <c r="M200" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.35">
@@ -9065,8 +8984,8 @@
       <c r="L201" t="s">
         <v>22</v>
       </c>
-      <c r="M201" t="str">
-        <v>High Sales</v>
+      <c r="M201" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.35">
@@ -9106,8 +9025,8 @@
       <c r="L202" t="s">
         <v>22</v>
       </c>
-      <c r="M202" t="str">
-        <v>High Sales</v>
+      <c r="M202" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.35">
@@ -9147,8 +9066,8 @@
       <c r="L203" t="s">
         <v>24</v>
       </c>
-      <c r="M203" t="str">
-        <v>High Sales</v>
+      <c r="M203" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.35">
@@ -9188,8 +9107,8 @@
       <c r="L204" t="s">
         <v>30</v>
       </c>
-      <c r="M204" t="str">
-        <v>High Sales</v>
+      <c r="M204" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.35">
@@ -9229,8 +9148,8 @@
       <c r="L205" t="s">
         <v>31</v>
       </c>
-      <c r="M205" t="str">
-        <v>High Sales</v>
+      <c r="M205" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.35">
@@ -9270,8 +9189,8 @@
       <c r="L206" t="s">
         <v>41</v>
       </c>
-      <c r="M206" t="str">
-        <v>High Sales</v>
+      <c r="M206" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.35">
@@ -9311,8 +9230,8 @@
       <c r="L207" t="s">
         <v>30</v>
       </c>
-      <c r="M207" t="str">
-        <v>High Sales</v>
+      <c r="M207" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.35">
@@ -9352,8 +9271,8 @@
       <c r="L208" t="s">
         <v>31</v>
       </c>
-      <c r="M208" t="str">
-        <v>High Sales</v>
+      <c r="M208" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.35">
@@ -9393,8 +9312,8 @@
       <c r="L209" t="s">
         <v>31</v>
       </c>
-      <c r="M209" t="str">
-        <v>High Sales</v>
+      <c r="M209" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.35">
@@ -9434,8 +9353,8 @@
       <c r="L210" t="s">
         <v>34</v>
       </c>
-      <c r="M210" t="str">
-        <v>High Sales</v>
+      <c r="M210" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.35">
@@ -9475,8 +9394,8 @@
       <c r="L211" t="s">
         <v>38</v>
       </c>
-      <c r="M211" t="str">
-        <v>High Sales</v>
+      <c r="M211" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.35">
@@ -9516,8 +9435,8 @@
       <c r="L212" t="s">
         <v>30</v>
       </c>
-      <c r="M212" t="str">
-        <v>High Sales</v>
+      <c r="M212" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.35">
@@ -9557,8 +9476,8 @@
       <c r="L213" t="s">
         <v>31</v>
       </c>
-      <c r="M213" t="str">
-        <v>High Sales</v>
+      <c r="M213" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.35">
@@ -9598,8 +9517,8 @@
       <c r="L214" t="s">
         <v>22</v>
       </c>
-      <c r="M214" t="str">
-        <v>High Sales</v>
+      <c r="M214" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.35">
@@ -9639,8 +9558,8 @@
       <c r="L215" t="s">
         <v>31</v>
       </c>
-      <c r="M215" t="str">
-        <v>High Sales</v>
+      <c r="M215" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.35">
@@ -9680,8 +9599,8 @@
       <c r="L216" t="s">
         <v>16</v>
       </c>
-      <c r="M216" t="str">
-        <v>High Sales</v>
+      <c r="M216" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.35">
@@ -9721,8 +9640,8 @@
       <c r="L217" t="s">
         <v>30</v>
       </c>
-      <c r="M217" t="str">
-        <v>High Sales</v>
+      <c r="M217" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.35">
@@ -9762,8 +9681,8 @@
       <c r="L218" t="s">
         <v>31</v>
       </c>
-      <c r="M218" t="str">
-        <v>High Sales</v>
+      <c r="M218" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.35">
@@ -9803,8 +9722,8 @@
       <c r="L219" t="s">
         <v>22</v>
       </c>
-      <c r="M219" t="str">
-        <v>High Sales</v>
+      <c r="M219" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.35">
@@ -9844,8 +9763,8 @@
       <c r="L220" t="s">
         <v>22</v>
       </c>
-      <c r="M220" t="str">
-        <v>High Sales</v>
+      <c r="M220" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.35">
@@ -9885,8 +9804,8 @@
       <c r="L221" t="s">
         <v>31</v>
       </c>
-      <c r="M221" t="str">
-        <v>High Sales</v>
+      <c r="M221" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.35">
@@ -9926,8 +9845,8 @@
       <c r="L222" t="s">
         <v>27</v>
       </c>
-      <c r="M222" t="str">
-        <v>High Sales</v>
+      <c r="M222" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.35">
@@ -9967,8 +9886,8 @@
       <c r="L223" t="s">
         <v>29</v>
       </c>
-      <c r="M223" t="str">
-        <v>High Sales</v>
+      <c r="M223" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.35">
@@ -10008,8 +9927,8 @@
       <c r="L224" t="s">
         <v>31</v>
       </c>
-      <c r="M224" t="str">
-        <v>High Sales</v>
+      <c r="M224" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.35">
@@ -10049,8 +9968,8 @@
       <c r="L225" t="s">
         <v>34</v>
       </c>
-      <c r="M225" t="str">
-        <v>High Sales</v>
+      <c r="M225" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.35">
@@ -10090,8 +10009,8 @@
       <c r="L226" t="s">
         <v>34</v>
       </c>
-      <c r="M226" t="str">
-        <v>High Sales</v>
+      <c r="M226" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.35">
@@ -10131,8 +10050,8 @@
       <c r="L227" t="s">
         <v>41</v>
       </c>
-      <c r="M227" t="str">
-        <v>High Sales</v>
+      <c r="M227" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.35">
@@ -10172,8 +10091,8 @@
       <c r="L228" t="s">
         <v>20</v>
       </c>
-      <c r="M228" t="str">
-        <v>High Sales</v>
+      <c r="M228" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.35">
@@ -10213,8 +10132,8 @@
       <c r="L229" t="s">
         <v>35</v>
       </c>
-      <c r="M229" t="str">
-        <v>High Sales</v>
+      <c r="M229" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.35">
@@ -10254,8 +10173,8 @@
       <c r="L230" t="s">
         <v>35</v>
       </c>
-      <c r="M230" t="str">
-        <v>High Sales</v>
+      <c r="M230" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.35">
@@ -10295,8 +10214,8 @@
       <c r="L231" t="s">
         <v>22</v>
       </c>
-      <c r="M231" t="str">
-        <v>High Sales</v>
+      <c r="M231" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.35">
@@ -10336,8 +10255,8 @@
       <c r="L232" t="s">
         <v>22</v>
       </c>
-      <c r="M232" t="str">
-        <v>High Sales</v>
+      <c r="M232" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.35">
@@ -10377,8 +10296,8 @@
       <c r="L233" t="s">
         <v>16</v>
       </c>
-      <c r="M233" t="str">
-        <v>High Sales</v>
+      <c r="M233" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.35">
@@ -10418,8 +10337,8 @@
       <c r="L234" t="s">
         <v>27</v>
       </c>
-      <c r="M234" t="str">
-        <v>High Sales</v>
+      <c r="M234" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.35">
@@ -10459,8 +10378,8 @@
       <c r="L235" t="s">
         <v>30</v>
       </c>
-      <c r="M235" t="str">
-        <v>High Sales</v>
+      <c r="M235" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.35">
@@ -10500,8 +10419,8 @@
       <c r="L236" t="s">
         <v>35</v>
       </c>
-      <c r="M236" t="str">
-        <v>High Sales</v>
+      <c r="M236" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.35">
@@ -10541,8 +10460,8 @@
       <c r="L237" t="s">
         <v>22</v>
       </c>
-      <c r="M237" t="str">
-        <v>High Sales</v>
+      <c r="M237" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.35">
@@ -10582,8 +10501,8 @@
       <c r="L238" t="s">
         <v>34</v>
       </c>
-      <c r="M238" t="str">
-        <v>High Sales</v>
+      <c r="M238" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.35">
@@ -10623,8 +10542,8 @@
       <c r="L239" t="s">
         <v>24</v>
       </c>
-      <c r="M239" t="str">
-        <v>High Sales</v>
+      <c r="M239" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.35">
@@ -10664,8 +10583,8 @@
       <c r="L240" t="s">
         <v>24</v>
       </c>
-      <c r="M240" t="str">
-        <v>High Sales</v>
+      <c r="M240" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.35">
@@ -10705,8 +10624,8 @@
       <c r="L241" t="s">
         <v>38</v>
       </c>
-      <c r="M241" t="str">
-        <v>High Sales</v>
+      <c r="M241" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.35">
@@ -10746,8 +10665,8 @@
       <c r="L242" t="s">
         <v>41</v>
       </c>
-      <c r="M242" t="str">
-        <v>High Sales</v>
+      <c r="M242" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.35">
@@ -10787,8 +10706,8 @@
       <c r="L243" t="s">
         <v>20</v>
       </c>
-      <c r="M243" t="str">
-        <v>High Sales</v>
+      <c r="M243" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.35">
@@ -10828,8 +10747,8 @@
       <c r="L244" t="s">
         <v>20</v>
       </c>
-      <c r="M244" t="str">
-        <v>High Sales</v>
+      <c r="M244" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.35">
@@ -10869,8 +10788,8 @@
       <c r="L245" t="s">
         <v>30</v>
       </c>
-      <c r="M245" t="str">
-        <v>High Sales</v>
+      <c r="M245" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.35">
@@ -10910,8 +10829,8 @@
       <c r="L246" t="s">
         <v>31</v>
       </c>
-      <c r="M246" t="str">
-        <v>High Sales</v>
+      <c r="M246" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.35">
@@ -10951,8 +10870,8 @@
       <c r="L247" t="s">
         <v>31</v>
       </c>
-      <c r="M247" t="str">
-        <v>High Sales</v>
+      <c r="M247" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.35">
@@ -10992,8 +10911,8 @@
       <c r="L248" t="s">
         <v>31</v>
       </c>
-      <c r="M248" t="str">
-        <v>High Sales</v>
+      <c r="M248" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.35">
@@ -11033,8 +10952,8 @@
       <c r="L249" t="s">
         <v>31</v>
       </c>
-      <c r="M249" t="str">
-        <v>High Sales</v>
+      <c r="M249" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.35">
@@ -11074,8 +10993,8 @@
       <c r="L250" t="s">
         <v>22</v>
       </c>
-      <c r="M250" t="str">
-        <v>High Sales</v>
+      <c r="M250" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.35">
@@ -11115,8 +11034,8 @@
       <c r="L251" t="s">
         <v>22</v>
       </c>
-      <c r="M251" t="str">
-        <v>High Sales</v>
+      <c r="M251" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.35">
@@ -11156,8 +11075,8 @@
       <c r="L252" t="s">
         <v>22</v>
       </c>
-      <c r="M252" t="str">
-        <v>High Sales</v>
+      <c r="M252" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.35">
@@ -11197,8 +11116,8 @@
       <c r="L253" t="s">
         <v>22</v>
       </c>
-      <c r="M253" t="str">
-        <v>High Sales</v>
+      <c r="M253" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.35">
@@ -11238,8 +11157,8 @@
       <c r="L254" t="s">
         <v>16</v>
       </c>
-      <c r="M254" t="str">
-        <v>High Sales</v>
+      <c r="M254" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.35">
@@ -11279,8 +11198,8 @@
       <c r="L255" t="s">
         <v>16</v>
       </c>
-      <c r="M255" t="str">
-        <v>High Sales</v>
+      <c r="M255" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.35">
@@ -11320,8 +11239,8 @@
       <c r="L256" t="s">
         <v>34</v>
       </c>
-      <c r="M256" t="str">
-        <v>High Sales</v>
+      <c r="M256" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.35">
@@ -11361,8 +11280,8 @@
       <c r="L257" t="s">
         <v>20</v>
       </c>
-      <c r="M257" t="str">
-        <v>High Sales</v>
+      <c r="M257" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.35">
@@ -11402,8 +11321,8 @@
       <c r="L258" t="s">
         <v>29</v>
       </c>
-      <c r="M258" t="str">
-        <v>High Sales</v>
+      <c r="M258" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.35">
@@ -11443,8 +11362,8 @@
       <c r="L259" t="s">
         <v>29</v>
       </c>
-      <c r="M259" t="str">
-        <v>High Sales</v>
+      <c r="M259" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.35">
@@ -11484,8 +11403,8 @@
       <c r="L260" t="s">
         <v>31</v>
       </c>
-      <c r="M260" t="str">
-        <v>High Sales</v>
+      <c r="M260" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.35">
@@ -11525,8 +11444,8 @@
       <c r="L261" t="s">
         <v>31</v>
       </c>
-      <c r="M261" t="str">
-        <v>High Sales</v>
+      <c r="M261" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.35">
@@ -11566,8 +11485,8 @@
       <c r="L262" t="s">
         <v>22</v>
       </c>
-      <c r="M262" t="str">
-        <v>High Sales</v>
+      <c r="M262" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.35">
@@ -11607,8 +11526,8 @@
       <c r="L263" t="s">
         <v>22</v>
       </c>
-      <c r="M263" t="str">
-        <v>High Sales</v>
+      <c r="M263" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.35">
@@ -11648,8 +11567,8 @@
       <c r="L264" t="s">
         <v>31</v>
       </c>
-      <c r="M264" t="str">
-        <v>High Sales</v>
+      <c r="M264" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.35">
@@ -11689,8 +11608,8 @@
       <c r="L265" t="s">
         <v>35</v>
       </c>
-      <c r="M265" t="str">
-        <v>High Sales</v>
+      <c r="M265" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.35">
@@ -11730,8 +11649,8 @@
       <c r="L266" t="s">
         <v>35</v>
       </c>
-      <c r="M266" t="str">
-        <v>High Sales</v>
+      <c r="M266" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.35">
@@ -11771,8 +11690,8 @@
       <c r="L267" t="s">
         <v>22</v>
       </c>
-      <c r="M267" t="str">
-        <v>High Sales</v>
+      <c r="M267" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.35">
@@ -11812,8 +11731,8 @@
       <c r="L268" t="s">
         <v>22</v>
       </c>
-      <c r="M268" t="str">
-        <v>High Sales</v>
+      <c r="M268" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.35">
@@ -11853,8 +11772,8 @@
       <c r="L269" t="s">
         <v>22</v>
       </c>
-      <c r="M269" t="str">
-        <v>High Sales</v>
+      <c r="M269" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.35">
@@ -11894,8 +11813,8 @@
       <c r="L270" t="s">
         <v>34</v>
       </c>
-      <c r="M270" t="str">
-        <v>High Sales</v>
+      <c r="M270" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.35">
@@ -11935,8 +11854,8 @@
       <c r="L271" t="s">
         <v>29</v>
       </c>
-      <c r="M271" t="str">
-        <v>High Sales</v>
+      <c r="M271" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.35">
@@ -11976,8 +11895,8 @@
       <c r="L272" t="s">
         <v>31</v>
       </c>
-      <c r="M272" t="str">
-        <v>High Sales</v>
+      <c r="M272" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.35">
@@ -12017,8 +11936,8 @@
       <c r="L273" t="s">
         <v>22</v>
       </c>
-      <c r="M273" t="str">
-        <v>High Sales</v>
+      <c r="M273" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.35">
@@ -12058,8 +11977,8 @@
       <c r="L274" t="s">
         <v>38</v>
       </c>
-      <c r="M274" t="str">
-        <v>High Sales</v>
+      <c r="M274" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.35">
@@ -12099,8 +12018,8 @@
       <c r="L275" t="s">
         <v>16</v>
       </c>
-      <c r="M275" t="str">
-        <v>High Sales</v>
+      <c r="M275" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.35">
@@ -12140,8 +12059,8 @@
       <c r="L276" t="s">
         <v>20</v>
       </c>
-      <c r="M276" t="str">
-        <v>High Sales</v>
+      <c r="M276" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.35">
@@ -12181,8 +12100,8 @@
       <c r="L277" t="s">
         <v>30</v>
       </c>
-      <c r="M277" t="str">
-        <v>High Sales</v>
+      <c r="M277" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.35">
@@ -12222,8 +12141,8 @@
       <c r="L278" t="s">
         <v>31</v>
       </c>
-      <c r="M278" t="str">
-        <v>High Sales</v>
+      <c r="M278" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.35">
@@ -12263,8 +12182,8 @@
       <c r="L279" t="s">
         <v>35</v>
       </c>
-      <c r="M279" t="str">
-        <v>High Sales</v>
+      <c r="M279" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.35">
@@ -12304,8 +12223,8 @@
       <c r="L280" t="s">
         <v>35</v>
       </c>
-      <c r="M280" t="str">
-        <v>High Sales</v>
+      <c r="M280" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.35">
@@ -12345,8 +12264,8 @@
       <c r="L281" t="s">
         <v>22</v>
       </c>
-      <c r="M281" t="str">
-        <v>High Sales</v>
+      <c r="M281" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.35">
@@ -12386,8 +12305,8 @@
       <c r="L282" t="s">
         <v>38</v>
       </c>
-      <c r="M282" t="str">
-        <v>High Sales</v>
+      <c r="M282" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.35">
@@ -12427,8 +12346,8 @@
       <c r="L283" t="s">
         <v>41</v>
       </c>
-      <c r="M283" t="str">
-        <v>High Sales</v>
+      <c r="M283" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.35">
@@ -12468,8 +12387,8 @@
       <c r="L284" t="s">
         <v>31</v>
       </c>
-      <c r="M284" t="str">
-        <v>High Sales</v>
+      <c r="M284" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.35">
@@ -12509,8 +12428,8 @@
       <c r="L285" t="s">
         <v>35</v>
       </c>
-      <c r="M285" t="str">
-        <v>High Sales</v>
+      <c r="M285" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.35">
@@ -12550,8 +12469,8 @@
       <c r="L286" t="s">
         <v>20</v>
       </c>
-      <c r="M286" t="str">
-        <v>High Sales</v>
+      <c r="M286" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.35">
@@ -12591,8 +12510,8 @@
       <c r="L287" t="s">
         <v>31</v>
       </c>
-      <c r="M287" t="str">
-        <v>High Sales</v>
+      <c r="M287" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.35">
@@ -12632,8 +12551,8 @@
       <c r="L288" t="s">
         <v>31</v>
       </c>
-      <c r="M288" t="str">
-        <v>High Sales</v>
+      <c r="M288" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.35">
@@ -12673,8 +12592,8 @@
       <c r="L289" t="s">
         <v>34</v>
       </c>
-      <c r="M289" t="str">
-        <v>High Sales</v>
+      <c r="M289" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.35">
@@ -12714,8 +12633,8 @@
       <c r="L290" t="s">
         <v>34</v>
       </c>
-      <c r="M290" t="str">
-        <v>High Sales</v>
+      <c r="M290" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.35">
@@ -12755,8 +12674,8 @@
       <c r="L291" t="s">
         <v>41</v>
       </c>
-      <c r="M291" t="str">
-        <v>High Sales</v>
+      <c r="M291" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.35">
@@ -12796,8 +12715,8 @@
       <c r="L292" t="s">
         <v>20</v>
       </c>
-      <c r="M292" t="str">
-        <v>High Sales</v>
+      <c r="M292" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.35">
@@ -12837,8 +12756,8 @@
       <c r="L293" t="s">
         <v>20</v>
       </c>
-      <c r="M293" t="str">
-        <v>High Sales</v>
+      <c r="M293" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.35">
@@ -12878,8 +12797,8 @@
       <c r="L294" t="s">
         <v>31</v>
       </c>
-      <c r="M294" t="str">
-        <v>High Sales</v>
+      <c r="M294" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.35">
@@ -12919,8 +12838,8 @@
       <c r="L295" t="s">
         <v>31</v>
       </c>
-      <c r="M295" t="str">
-        <v>High Sales</v>
+      <c r="M295" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.35">
@@ -12960,8 +12879,8 @@
       <c r="L296" t="s">
         <v>20</v>
       </c>
-      <c r="M296" t="str">
-        <v>High Sales</v>
+      <c r="M296" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.35">
@@ -13001,8 +12920,8 @@
       <c r="L297" t="s">
         <v>20</v>
       </c>
-      <c r="M297" t="str">
-        <v>High Sales</v>
+      <c r="M297" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.35">
@@ -13042,8 +12961,8 @@
       <c r="L298" t="s">
         <v>31</v>
       </c>
-      <c r="M298" t="str">
-        <v>High Sales</v>
+      <c r="M298" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.35">
@@ -13083,8 +13002,8 @@
       <c r="L299" t="s">
         <v>35</v>
       </c>
-      <c r="M299" t="str">
-        <v>High Sales</v>
+      <c r="M299" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.35">
@@ -13124,8 +13043,8 @@
       <c r="L300" t="s">
         <v>22</v>
       </c>
-      <c r="M300" t="str">
-        <v>High Sales</v>
+      <c r="M300" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.35">
@@ -13165,8 +13084,8 @@
       <c r="L301" t="s">
         <v>16</v>
       </c>
-      <c r="M301" t="str">
-        <v>High Sales</v>
+      <c r="M301" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.35">
@@ -13206,8 +13125,8 @@
       <c r="L302" t="s">
         <v>30</v>
       </c>
-      <c r="M302" t="str">
-        <v>High Sales</v>
+      <c r="M302" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.35">
@@ -13247,8 +13166,8 @@
       <c r="L303" t="s">
         <v>31</v>
       </c>
-      <c r="M303" t="str">
-        <v>High Sales</v>
+      <c r="M303" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.35">
@@ -13288,8 +13207,8 @@
       <c r="L304" t="s">
         <v>31</v>
       </c>
-      <c r="M304" t="str">
-        <v>High Sales</v>
+      <c r="M304" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.35">
@@ -13329,8 +13248,8 @@
       <c r="L305" t="s">
         <v>31</v>
       </c>
-      <c r="M305" t="str">
-        <v>High Sales</v>
+      <c r="M305" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.35">
@@ -13370,8 +13289,8 @@
       <c r="L306" t="s">
         <v>31</v>
       </c>
-      <c r="M306" t="str">
-        <v>High Sales</v>
+      <c r="M306" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.35">
@@ -13411,8 +13330,8 @@
       <c r="L307" t="s">
         <v>29</v>
       </c>
-      <c r="M307" t="str">
-        <v>High Sales</v>
+      <c r="M307" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.35">
@@ -13452,8 +13371,8 @@
       <c r="L308" t="s">
         <v>29</v>
       </c>
-      <c r="M308" t="str">
-        <v>High Sales</v>
+      <c r="M308" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.35">
@@ -13493,8 +13412,8 @@
       <c r="L309" t="s">
         <v>31</v>
       </c>
-      <c r="M309" t="str">
-        <v>High Sales</v>
+      <c r="M309" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.35">
@@ -13534,8 +13453,8 @@
       <c r="L310" t="s">
         <v>31</v>
       </c>
-      <c r="M310" t="str">
-        <v>High Sales</v>
+      <c r="M310" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.35">
@@ -13575,8 +13494,8 @@
       <c r="L311" t="s">
         <v>29</v>
       </c>
-      <c r="M311" t="str">
-        <v>High Sales</v>
+      <c r="M311" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.35">
@@ -13616,8 +13535,8 @@
       <c r="L312" t="s">
         <v>35</v>
       </c>
-      <c r="M312" t="str">
-        <v>High Sales</v>
+      <c r="M312" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.35">
@@ -13657,8 +13576,8 @@
       <c r="L313" t="s">
         <v>31</v>
       </c>
-      <c r="M313" t="str">
-        <v>High Sales</v>
+      <c r="M313" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.35">
@@ -13698,8 +13617,8 @@
       <c r="L314" t="s">
         <v>34</v>
       </c>
-      <c r="M314" t="str">
-        <v>High Sales</v>
+      <c r="M314" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.35">
@@ -13739,8 +13658,8 @@
       <c r="L315" t="s">
         <v>29</v>
       </c>
-      <c r="M315" t="str">
-        <v>High Sales</v>
+      <c r="M315" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.35">
@@ -13780,8 +13699,8 @@
       <c r="L316" t="s">
         <v>30</v>
       </c>
-      <c r="M316" t="str">
-        <v>High Sales</v>
+      <c r="M316" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.35">
@@ -13821,8 +13740,8 @@
       <c r="L317" t="s">
         <v>16</v>
       </c>
-      <c r="M317" t="str">
-        <v>High Sales</v>
+      <c r="M317" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.35">
@@ -13862,8 +13781,8 @@
       <c r="L318" t="s">
         <v>35</v>
       </c>
-      <c r="M318" t="str">
-        <v>High Sales</v>
+      <c r="M318" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.35">
@@ -13903,8 +13822,8 @@
       <c r="L319" t="s">
         <v>30</v>
       </c>
-      <c r="M319" t="str">
-        <v>High Sales</v>
+      <c r="M319" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.35">
@@ -13944,8 +13863,8 @@
       <c r="L320" t="s">
         <v>41</v>
       </c>
-      <c r="M320" t="str">
-        <v>High Sales</v>
+      <c r="M320" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.35">
@@ -13985,8 +13904,8 @@
       <c r="L321" t="s">
         <v>20</v>
       </c>
-      <c r="M321" t="str">
-        <v>High Sales</v>
+      <c r="M321" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.35">
@@ -14026,8 +13945,8 @@
       <c r="L322" t="s">
         <v>35</v>
       </c>
-      <c r="M322" t="str">
-        <v>High Sales</v>
+      <c r="M322" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.35">
@@ -14067,8 +13986,8 @@
       <c r="L323" t="s">
         <v>22</v>
       </c>
-      <c r="M323" t="str">
-        <v>High Sales</v>
+      <c r="M323" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.35">
@@ -14108,8 +14027,8 @@
       <c r="L324" t="s">
         <v>38</v>
       </c>
-      <c r="M324" t="str">
-        <v>High Sales</v>
+      <c r="M324" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.35">
@@ -14149,8 +14068,8 @@
       <c r="L325" t="s">
         <v>30</v>
       </c>
-      <c r="M325" t="str">
-        <v>High Sales</v>
+      <c r="M325" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.35">
@@ -14190,8 +14109,8 @@
       <c r="L326" t="s">
         <v>22</v>
       </c>
-      <c r="M326" t="str">
-        <v>High Sales</v>
+      <c r="M326" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.35">
@@ -14231,8 +14150,8 @@
       <c r="L327" t="s">
         <v>20</v>
       </c>
-      <c r="M327" t="str">
-        <v>High Sales</v>
+      <c r="M327" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.35">
@@ -14272,8 +14191,8 @@
       <c r="L328" t="s">
         <v>24</v>
       </c>
-      <c r="M328" t="str">
-        <v>High Sales</v>
+      <c r="M328" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.35">
@@ -14313,8 +14232,8 @@
       <c r="L329" t="s">
         <v>20</v>
       </c>
-      <c r="M329" t="str">
-        <v>High Sales</v>
+      <c r="M329" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.35">
@@ -14354,8 +14273,8 @@
       <c r="L330" t="s">
         <v>31</v>
       </c>
-      <c r="M330" t="str">
-        <v>High Sales</v>
+      <c r="M330" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.35">
@@ -14395,8 +14314,8 @@
       <c r="L331" t="s">
         <v>31</v>
       </c>
-      <c r="M331" t="str">
-        <v>High Sales</v>
+      <c r="M331" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.35">
@@ -14436,8 +14355,8 @@
       <c r="L332" t="s">
         <v>31</v>
       </c>
-      <c r="M332" t="str">
-        <v>High Sales</v>
+      <c r="M332" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.35">
@@ -14477,8 +14396,8 @@
       <c r="L333" t="s">
         <v>35</v>
       </c>
-      <c r="M333" t="str">
-        <v>High Sales</v>
+      <c r="M333" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.35">
@@ -14518,8 +14437,8 @@
       <c r="L334" t="s">
         <v>41</v>
       </c>
-      <c r="M334" t="str">
-        <v>High Sales</v>
+      <c r="M334" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.35">
@@ -14559,8 +14478,8 @@
       <c r="L335" t="s">
         <v>20</v>
       </c>
-      <c r="M335" t="str">
-        <v>High Sales</v>
+      <c r="M335" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.35">
@@ -14600,8 +14519,8 @@
       <c r="L336" t="s">
         <v>27</v>
       </c>
-      <c r="M336" t="str">
-        <v>High Sales</v>
+      <c r="M336" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.35">
@@ -14641,8 +14560,8 @@
       <c r="L337" t="s">
         <v>29</v>
       </c>
-      <c r="M337" t="str">
-        <v>High Sales</v>
+      <c r="M337" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.35">
@@ -14682,8 +14601,8 @@
       <c r="L338" t="s">
         <v>30</v>
       </c>
-      <c r="M338" t="str">
-        <v>High Sales</v>
+      <c r="M338" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.35">
@@ -14723,8 +14642,8 @@
       <c r="L339" t="s">
         <v>30</v>
       </c>
-      <c r="M339" t="str">
-        <v>High Sales</v>
+      <c r="M339" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.35">
@@ -14764,8 +14683,8 @@
       <c r="L340" t="s">
         <v>30</v>
       </c>
-      <c r="M340" t="str">
-        <v>High Sales</v>
+      <c r="M340" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.35">
@@ -14805,8 +14724,8 @@
       <c r="L341" t="s">
         <v>35</v>
       </c>
-      <c r="M341" t="str">
-        <v>High Sales</v>
+      <c r="M341" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.35">
@@ -14846,8 +14765,8 @@
       <c r="L342" t="s">
         <v>35</v>
       </c>
-      <c r="M342" t="str">
-        <v>High Sales</v>
+      <c r="M342" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.35">
@@ -14887,8 +14806,8 @@
       <c r="L343" t="s">
         <v>22</v>
       </c>
-      <c r="M343" t="str">
-        <v>High Sales</v>
+      <c r="M343" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.35">
@@ -14928,8 +14847,8 @@
       <c r="L344" t="s">
         <v>27</v>
       </c>
-      <c r="M344" t="str">
-        <v>High Sales</v>
+      <c r="M344" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.35">
@@ -14969,8 +14888,8 @@
       <c r="L345" t="s">
         <v>29</v>
       </c>
-      <c r="M345" t="str">
-        <v>High Sales</v>
+      <c r="M345" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.35">
@@ -15010,8 +14929,8 @@
       <c r="L346" t="s">
         <v>30</v>
       </c>
-      <c r="M346" t="str">
-        <v>High Sales</v>
+      <c r="M346" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.35">
@@ -15051,8 +14970,8 @@
       <c r="L347" t="s">
         <v>31</v>
       </c>
-      <c r="M347" t="str">
-        <v>High Sales</v>
+      <c r="M347" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.35">
@@ -15092,8 +15011,8 @@
       <c r="L348" t="s">
         <v>22</v>
       </c>
-      <c r="M348" t="str">
-        <v>High Sales</v>
+      <c r="M348" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.35">
@@ -15133,8 +15052,8 @@
       <c r="L349" t="s">
         <v>22</v>
       </c>
-      <c r="M349" t="str">
-        <v>High Sales</v>
+      <c r="M349" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.35">
@@ -15174,8 +15093,8 @@
       <c r="L350" t="s">
         <v>22</v>
       </c>
-      <c r="M350" t="str">
-        <v>High Sales</v>
+      <c r="M350" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.35">
@@ -15215,8 +15134,8 @@
       <c r="L351" t="s">
         <v>16</v>
       </c>
-      <c r="M351" t="str">
-        <v>High Sales</v>
+      <c r="M351" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.35">
@@ -15256,8 +15175,8 @@
       <c r="L352" t="s">
         <v>34</v>
       </c>
-      <c r="M352" t="str">
-        <v>High Sales</v>
+      <c r="M352" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.35">
@@ -15297,8 +15216,8 @@
       <c r="L353" t="s">
         <v>34</v>
       </c>
-      <c r="M353" t="str">
-        <v>High Sales</v>
+      <c r="M353" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.35">
@@ -15338,8 +15257,8 @@
       <c r="L354" t="s">
         <v>41</v>
       </c>
-      <c r="M354" t="str">
-        <v>High Sales</v>
+      <c r="M354" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.35">
@@ -15379,8 +15298,8 @@
       <c r="L355" t="s">
         <v>30</v>
       </c>
-      <c r="M355" t="str">
-        <v>High Sales</v>
+      <c r="M355" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.35">
@@ -15420,8 +15339,8 @@
       <c r="L356" t="s">
         <v>30</v>
       </c>
-      <c r="M356" t="str">
-        <v>High Sales</v>
+      <c r="M356" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.35">
@@ -15461,8 +15380,8 @@
       <c r="L357" t="s">
         <v>35</v>
       </c>
-      <c r="M357" t="str">
-        <v>High Sales</v>
+      <c r="M357" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.35">
@@ -15502,8 +15421,8 @@
       <c r="L358" t="s">
         <v>22</v>
       </c>
-      <c r="M358" t="str">
-        <v>High Sales</v>
+      <c r="M358" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.35">
@@ -15543,8 +15462,8 @@
       <c r="L359" t="s">
         <v>34</v>
       </c>
-      <c r="M359" t="str">
-        <v>High Sales</v>
+      <c r="M359" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.35">
@@ -15584,8 +15503,8 @@
       <c r="L360" t="s">
         <v>20</v>
       </c>
-      <c r="M360" t="str">
-        <v>High Sales</v>
+      <c r="M360" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.35">
@@ -15625,8 +15544,8 @@
       <c r="L361" t="s">
         <v>41</v>
       </c>
-      <c r="M361" t="str">
-        <v>High Sales</v>
+      <c r="M361" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.35">
@@ -15666,8 +15585,8 @@
       <c r="L362" t="s">
         <v>20</v>
       </c>
-      <c r="M362" t="str">
-        <v>High Sales</v>
+      <c r="M362" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.35">
@@ -15707,8 +15626,8 @@
       <c r="L363" t="s">
         <v>29</v>
       </c>
-      <c r="M363" t="str">
-        <v>High Sales</v>
+      <c r="M363" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.35">
@@ -15748,8 +15667,8 @@
       <c r="L364" t="s">
         <v>35</v>
       </c>
-      <c r="M364" t="str">
-        <v>High Sales</v>
+      <c r="M364" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.35">
@@ -15789,8 +15708,8 @@
       <c r="L365" t="s">
         <v>22</v>
       </c>
-      <c r="M365" t="str">
-        <v>High Sales</v>
+      <c r="M365" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.35">
@@ -15830,8 +15749,8 @@
       <c r="L366" t="s">
         <v>24</v>
       </c>
-      <c r="M366" t="str">
-        <v>High Sales</v>
+      <c r="M366" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.35">
@@ -15871,8 +15790,8 @@
       <c r="L367" t="s">
         <v>20</v>
       </c>
-      <c r="M367" t="str">
-        <v>High Sales</v>
+      <c r="M367" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.35">
@@ -15912,8 +15831,8 @@
       <c r="L368" t="s">
         <v>27</v>
       </c>
-      <c r="M368" t="str">
-        <v>High Sales</v>
+      <c r="M368" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.35">
@@ -15953,8 +15872,8 @@
       <c r="L369" t="s">
         <v>29</v>
       </c>
-      <c r="M369" t="str">
-        <v>High Sales</v>
+      <c r="M369" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.35">
@@ -15994,8 +15913,8 @@
       <c r="L370" t="s">
         <v>30</v>
       </c>
-      <c r="M370" t="str">
-        <v>High Sales</v>
+      <c r="M370" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.35">
@@ -16035,8 +15954,8 @@
       <c r="L371" t="s">
         <v>22</v>
       </c>
-      <c r="M371" t="str">
-        <v>High Sales</v>
+      <c r="M371" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.35">
@@ -16076,8 +15995,8 @@
       <c r="L372" t="s">
         <v>24</v>
       </c>
-      <c r="M372" t="str">
-        <v>High Sales</v>
+      <c r="M372" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.35">
@@ -16117,8 +16036,8 @@
       <c r="L373" t="s">
         <v>38</v>
       </c>
-      <c r="M373" t="str">
-        <v>High Sales</v>
+      <c r="M373" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.35">
@@ -16158,8 +16077,8 @@
       <c r="L374" t="s">
         <v>41</v>
       </c>
-      <c r="M374" t="str">
-        <v>High Sales</v>
+      <c r="M374" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.35">
@@ -16199,8 +16118,8 @@
       <c r="L375" t="s">
         <v>20</v>
       </c>
-      <c r="M375" t="str">
-        <v>High Sales</v>
+      <c r="M375" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.35">
@@ -16240,8 +16159,8 @@
       <c r="L376" t="s">
         <v>20</v>
       </c>
-      <c r="M376" t="str">
-        <v>High Sales</v>
+      <c r="M376" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.35">
@@ -16281,8 +16200,8 @@
       <c r="L377" t="s">
         <v>29</v>
       </c>
-      <c r="M377" t="str">
-        <v>High Sales</v>
+      <c r="M377" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.35">
@@ -16322,8 +16241,8 @@
       <c r="L378" t="s">
         <v>29</v>
       </c>
-      <c r="M378" t="str">
-        <v>High Sales</v>
+      <c r="M378" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.35">
@@ -16363,8 +16282,8 @@
       <c r="L379" t="s">
         <v>30</v>
       </c>
-      <c r="M379" t="str">
-        <v>High Sales</v>
+      <c r="M379" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.35">
@@ -16404,8 +16323,8 @@
       <c r="L380" t="s">
         <v>30</v>
       </c>
-      <c r="M380" t="str">
-        <v>High Sales</v>
+      <c r="M380" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.35">
@@ -16445,8 +16364,8 @@
       <c r="L381" t="s">
         <v>30</v>
       </c>
-      <c r="M381" t="str">
-        <v>High Sales</v>
+      <c r="M381" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.35">
@@ -16486,8 +16405,8 @@
       <c r="L382" t="s">
         <v>35</v>
       </c>
-      <c r="M382" t="str">
-        <v>High Sales</v>
+      <c r="M382" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.35">
@@ -16527,8 +16446,8 @@
       <c r="L383" t="s">
         <v>22</v>
       </c>
-      <c r="M383" t="str">
-        <v>High Sales</v>
+      <c r="M383" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.35">
@@ -16568,8 +16487,8 @@
       <c r="L384" t="s">
         <v>22</v>
       </c>
-      <c r="M384" t="str">
-        <v>High Sales</v>
+      <c r="M384" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.35">
@@ -16609,8 +16528,8 @@
       <c r="L385" t="s">
         <v>24</v>
       </c>
-      <c r="M385" t="str">
-        <v>High Sales</v>
+      <c r="M385" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.35">
@@ -16650,8 +16569,8 @@
       <c r="L386" t="s">
         <v>20</v>
       </c>
-      <c r="M386" t="str">
-        <v>High Sales</v>
+      <c r="M386" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.35">
@@ -16691,8 +16610,8 @@
       <c r="L387" t="s">
         <v>20</v>
       </c>
-      <c r="M387" t="str">
-        <v>High Sales</v>
+      <c r="M387" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.35">
@@ -16732,8 +16651,8 @@
       <c r="L388" t="s">
         <v>35</v>
       </c>
-      <c r="M388" t="str">
-        <v>High Sales</v>
+      <c r="M388" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.35">
@@ -16773,8 +16692,8 @@
       <c r="L389" t="s">
         <v>22</v>
       </c>
-      <c r="M389" t="str">
-        <v>High Sales</v>
+      <c r="M389" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.35">
@@ -16814,8 +16733,8 @@
       <c r="L390" t="s">
         <v>38</v>
       </c>
-      <c r="M390" t="str">
-        <v>High Sales</v>
+      <c r="M390" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.35">
@@ -16855,8 +16774,8 @@
       <c r="L391" t="s">
         <v>20</v>
       </c>
-      <c r="M391" t="str">
-        <v>High Sales</v>
+      <c r="M391" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.35">
@@ -16896,8 +16815,8 @@
       <c r="L392" t="s">
         <v>29</v>
       </c>
-      <c r="M392" t="str">
-        <v>High Sales</v>
+      <c r="M392" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.35">
@@ -16937,8 +16856,8 @@
       <c r="L393" t="s">
         <v>29</v>
       </c>
-      <c r="M393" t="str">
-        <v>High Sales</v>
+      <c r="M393" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.35">
@@ -16978,8 +16897,8 @@
       <c r="L394" t="s">
         <v>30</v>
       </c>
-      <c r="M394" t="str">
-        <v>High Sales</v>
+      <c r="M394" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.35">
@@ -17019,8 +16938,8 @@
       <c r="L395" t="s">
         <v>22</v>
       </c>
-      <c r="M395" t="str">
-        <v>High Sales</v>
+      <c r="M395" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.35">
@@ -17060,8 +16979,8 @@
       <c r="L396" t="s">
         <v>20</v>
       </c>
-      <c r="M396" t="str">
-        <v>High Sales</v>
+      <c r="M396" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.35">
@@ -17101,8 +17020,8 @@
       <c r="L397" t="s">
         <v>20</v>
       </c>
-      <c r="M397" t="str">
-        <v>High Sales</v>
+      <c r="M397" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.35">
@@ -17142,8 +17061,8 @@
       <c r="L398" t="s">
         <v>20</v>
       </c>
-      <c r="M398" t="str">
-        <v>High Sales</v>
+      <c r="M398" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.35">
@@ -17183,8 +17102,8 @@
       <c r="L399" t="s">
         <v>20</v>
       </c>
-      <c r="M399" t="str">
-        <v>High Sales</v>
+      <c r="M399" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.35">
@@ -17224,8 +17143,8 @@
       <c r="L400" t="s">
         <v>35</v>
       </c>
-      <c r="M400" t="str">
-        <v>High Sales</v>
+      <c r="M400" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.35">
@@ -17265,8 +17184,8 @@
       <c r="L401" t="s">
         <v>22</v>
       </c>
-      <c r="M401" t="str">
-        <v>High Sales</v>
+      <c r="M401" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.35">
@@ -17306,8 +17225,8 @@
       <c r="L402" t="s">
         <v>22</v>
       </c>
-      <c r="M402" t="str">
-        <v>High Sales</v>
+      <c r="M402" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.35">
@@ -17347,8 +17266,8 @@
       <c r="L403" t="s">
         <v>22</v>
       </c>
-      <c r="M403" t="str">
-        <v>High Sales</v>
+      <c r="M403" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.35">
@@ -17388,8 +17307,8 @@
       <c r="L404" t="s">
         <v>27</v>
       </c>
-      <c r="M404" t="str">
-        <v>High Sales</v>
+      <c r="M404" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.35">
@@ -17429,8 +17348,8 @@
       <c r="L405" t="s">
         <v>20</v>
       </c>
-      <c r="M405" t="str">
-        <v>High Sales</v>
+      <c r="M405" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.35">
@@ -17470,8 +17389,8 @@
       <c r="L406" t="s">
         <v>31</v>
       </c>
-      <c r="M406" t="str">
-        <v>High Sales</v>
+      <c r="M406" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.35">
@@ -17511,8 +17430,8 @@
       <c r="L407" t="s">
         <v>38</v>
       </c>
-      <c r="M407" t="str">
-        <v>High Sales</v>
+      <c r="M407" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.35">
@@ -17552,8 +17471,8 @@
       <c r="L408" t="s">
         <v>41</v>
       </c>
-      <c r="M408" t="str">
-        <v>High Sales</v>
+      <c r="M408" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.35">
@@ -17593,8 +17512,8 @@
       <c r="L409" t="s">
         <v>30</v>
       </c>
-      <c r="M409" t="str">
-        <v>High Sales</v>
+      <c r="M409" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.35">
@@ -17634,8 +17553,8 @@
       <c r="L410" t="s">
         <v>35</v>
       </c>
-      <c r="M410" t="str">
-        <v>High Sales</v>
+      <c r="M410" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.35">
@@ -17675,8 +17594,8 @@
       <c r="L411" t="s">
         <v>35</v>
       </c>
-      <c r="M411" t="str">
-        <v>High Sales</v>
+      <c r="M411" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.35">
@@ -17716,8 +17635,8 @@
       <c r="L412" t="s">
         <v>22</v>
       </c>
-      <c r="M412" t="str">
-        <v>High Sales</v>
+      <c r="M412" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.35">
@@ -17757,8 +17676,8 @@
       <c r="L413" t="s">
         <v>22</v>
       </c>
-      <c r="M413" t="str">
-        <v>High Sales</v>
+      <c r="M413" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.35">
@@ -17798,8 +17717,8 @@
       <c r="L414" t="s">
         <v>22</v>
       </c>
-      <c r="M414" t="str">
-        <v>High Sales</v>
+      <c r="M414" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.35">
@@ -17839,8 +17758,8 @@
       <c r="L415" t="s">
         <v>16</v>
       </c>
-      <c r="M415" t="str">
-        <v>High Sales</v>
+      <c r="M415" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.35">
@@ -17880,8 +17799,8 @@
       <c r="L416" t="s">
         <v>16</v>
       </c>
-      <c r="M416" t="str">
-        <v>High Sales</v>
+      <c r="M416" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.35">
@@ -17921,8 +17840,8 @@
       <c r="L417" t="s">
         <v>38</v>
       </c>
-      <c r="M417" t="str">
-        <v>High Sales</v>
+      <c r="M417" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.35">
@@ -17962,8 +17881,8 @@
       <c r="L418" t="s">
         <v>20</v>
       </c>
-      <c r="M418" t="str">
-        <v>High Sales</v>
+      <c r="M418" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.35">
@@ -18003,8 +17922,8 @@
       <c r="L419" t="s">
         <v>31</v>
       </c>
-      <c r="M419" t="str">
-        <v>High Sales</v>
+      <c r="M419" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.35">
@@ -18044,8 +17963,8 @@
       <c r="L420" t="s">
         <v>31</v>
       </c>
-      <c r="M420" t="str">
-        <v>High Sales</v>
+      <c r="M420" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.35">
@@ -18085,8 +18004,8 @@
       <c r="L421" t="s">
         <v>35</v>
       </c>
-      <c r="M421" t="str">
-        <v>High Sales</v>
+      <c r="M421" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.35">
@@ -18126,8 +18045,8 @@
       <c r="L422" t="s">
         <v>35</v>
       </c>
-      <c r="M422" t="str">
-        <v>High Sales</v>
+      <c r="M422" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.35">
@@ -18167,8 +18086,8 @@
       <c r="L423" t="s">
         <v>22</v>
       </c>
-      <c r="M423" t="str">
-        <v>High Sales</v>
+      <c r="M423" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.35">
@@ -18208,8 +18127,8 @@
       <c r="L424" t="s">
         <v>41</v>
       </c>
-      <c r="M424" t="str">
-        <v>High Sales</v>
+      <c r="M424" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.35">
@@ -18249,8 +18168,8 @@
       <c r="L425" t="s">
         <v>27</v>
       </c>
-      <c r="M425" t="str">
-        <v>High Sales</v>
+      <c r="M425" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.35">
@@ -18290,8 +18209,8 @@
       <c r="L426" t="s">
         <v>27</v>
       </c>
-      <c r="M426" t="str">
-        <v>High Sales</v>
+      <c r="M426" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.35">
@@ -18331,8 +18250,8 @@
       <c r="L427" t="s">
         <v>30</v>
       </c>
-      <c r="M427" t="str">
-        <v>High Sales</v>
+      <c r="M427" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.35">
@@ -18372,8 +18291,8 @@
       <c r="L428" t="s">
         <v>30</v>
       </c>
-      <c r="M428" t="str">
-        <v>High Sales</v>
+      <c r="M428" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.35">
@@ -18413,8 +18332,8 @@
       <c r="L429" t="s">
         <v>31</v>
       </c>
-      <c r="M429" t="str">
-        <v>High Sales</v>
+      <c r="M429" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.35">
@@ -18454,8 +18373,8 @@
       <c r="L430" t="s">
         <v>16</v>
       </c>
-      <c r="M430" t="str">
-        <v>High Sales</v>
+      <c r="M430" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.35">
@@ -18495,8 +18414,8 @@
       <c r="L431" t="s">
         <v>34</v>
       </c>
-      <c r="M431" t="str">
-        <v>High Sales</v>
+      <c r="M431" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.35">
@@ -18536,8 +18455,8 @@
       <c r="L432" t="s">
         <v>38</v>
       </c>
-      <c r="M432" t="str">
-        <v>High Sales</v>
+      <c r="M432" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.35">
@@ -18577,8 +18496,8 @@
       <c r="L433" t="s">
         <v>41</v>
       </c>
-      <c r="M433" t="str">
-        <v>High Sales</v>
+      <c r="M433" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.35">
@@ -18618,8 +18537,8 @@
       <c r="L434" t="s">
         <v>30</v>
       </c>
-      <c r="M434" t="str">
-        <v>High Sales</v>
+      <c r="M434" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.35">
@@ -18659,8 +18578,8 @@
       <c r="L435" t="s">
         <v>30</v>
       </c>
-      <c r="M435" t="str">
-        <v>High Sales</v>
+      <c r="M435" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.35">
@@ -18700,8 +18619,8 @@
       <c r="L436" t="s">
         <v>31</v>
       </c>
-      <c r="M436" t="str">
-        <v>High Sales</v>
+      <c r="M436" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.35">
@@ -18741,8 +18660,8 @@
       <c r="L437" t="s">
         <v>35</v>
       </c>
-      <c r="M437" t="str">
-        <v>High Sales</v>
+      <c r="M437" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.35">
@@ -18782,8 +18701,8 @@
       <c r="L438" t="s">
         <v>30</v>
       </c>
-      <c r="M438" t="str">
-        <v>High Sales</v>
+      <c r="M438" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.35">
@@ -18823,8 +18742,8 @@
       <c r="L439" t="s">
         <v>31</v>
       </c>
-      <c r="M439" t="str">
-        <v>High Sales</v>
+      <c r="M439" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.35">
@@ -18864,8 +18783,8 @@
       <c r="L440" t="s">
         <v>35</v>
       </c>
-      <c r="M440" t="str">
-        <v>High Sales</v>
+      <c r="M440" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.35">
@@ -18905,8 +18824,8 @@
       <c r="L441" t="s">
         <v>35</v>
       </c>
-      <c r="M441" t="str">
-        <v>High Sales</v>
+      <c r="M441" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.35">
@@ -18946,8 +18865,8 @@
       <c r="L442" t="s">
         <v>41</v>
       </c>
-      <c r="M442" t="str">
-        <v>High Sales</v>
+      <c r="M442" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.35">
@@ -18987,8 +18906,8 @@
       <c r="L443" t="s">
         <v>27</v>
       </c>
-      <c r="M443" t="str">
-        <v>High Sales</v>
+      <c r="M443" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.35">
@@ -19028,8 +18947,8 @@
       <c r="L444" t="s">
         <v>30</v>
       </c>
-      <c r="M444" t="str">
-        <v>High Sales</v>
+      <c r="M444" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.35">
@@ -19069,8 +18988,8 @@
       <c r="L445" t="s">
         <v>22</v>
       </c>
-      <c r="M445" t="str">
-        <v>High Sales</v>
+      <c r="M445" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.35">
@@ -19110,8 +19029,8 @@
       <c r="L446" t="s">
         <v>24</v>
       </c>
-      <c r="M446" t="str">
-        <v>High Sales</v>
+      <c r="M446" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="447" spans="1:13" x14ac:dyDescent="0.35">
@@ -19151,8 +19070,8 @@
       <c r="L447" t="s">
         <v>20</v>
       </c>
-      <c r="M447" t="str">
-        <v>High Sales</v>
+      <c r="M447" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.35">
@@ -19192,8 +19111,8 @@
       <c r="L448" t="s">
         <v>31</v>
       </c>
-      <c r="M448" t="str">
-        <v>High Sales</v>
+      <c r="M448" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.35">
@@ -19233,8 +19152,8 @@
       <c r="L449" t="s">
         <v>24</v>
       </c>
-      <c r="M449" t="str">
-        <v>High Sales</v>
+      <c r="M449" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.35">
@@ -19274,8 +19193,8 @@
       <c r="L450" t="s">
         <v>38</v>
       </c>
-      <c r="M450" t="str">
-        <v>High Sales</v>
+      <c r="M450" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.35">
@@ -19315,8 +19234,8 @@
       <c r="L451" t="s">
         <v>31</v>
       </c>
-      <c r="M451" t="str">
-        <v>High Sales</v>
+      <c r="M451" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="452" spans="1:13" x14ac:dyDescent="0.35">
@@ -19356,8 +19275,8 @@
       <c r="L452" t="s">
         <v>35</v>
       </c>
-      <c r="M452" t="str">
-        <v>High Sales</v>
+      <c r="M452" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="453" spans="1:13" x14ac:dyDescent="0.35">
@@ -19397,8 +19316,8 @@
       <c r="L453" t="s">
         <v>22</v>
       </c>
-      <c r="M453" t="str">
-        <v>High Sales</v>
+      <c r="M453" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.35">
@@ -19438,8 +19357,8 @@
       <c r="L454" t="s">
         <v>20</v>
       </c>
-      <c r="M454" t="str">
-        <v>High Sales</v>
+      <c r="M454" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="455" spans="1:13" x14ac:dyDescent="0.35">
@@ -19479,8 +19398,8 @@
       <c r="L455" t="s">
         <v>27</v>
       </c>
-      <c r="M455" t="str">
-        <v>High Sales</v>
+      <c r="M455" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.35">
@@ -19520,8 +19439,8 @@
       <c r="L456" t="s">
         <v>22</v>
       </c>
-      <c r="M456" t="str">
-        <v>High Sales</v>
+      <c r="M456" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.35">
@@ -19561,8 +19480,8 @@
       <c r="L457" t="s">
         <v>31</v>
       </c>
-      <c r="M457" t="str">
-        <v>High Sales</v>
+      <c r="M457" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.35">
@@ -19602,8 +19521,8 @@
       <c r="L458" t="s">
         <v>30</v>
       </c>
-      <c r="M458" t="str">
-        <v>High Sales</v>
+      <c r="M458" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="459" spans="1:13" x14ac:dyDescent="0.35">
@@ -19643,8 +19562,8 @@
       <c r="L459" t="s">
         <v>31</v>
       </c>
-      <c r="M459" t="str">
-        <v>High Sales</v>
+      <c r="M459" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.35">
@@ -19684,8 +19603,8 @@
       <c r="L460" t="s">
         <v>38</v>
       </c>
-      <c r="M460" t="str">
-        <v>High Sales</v>
+      <c r="M460" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="461" spans="1:13" x14ac:dyDescent="0.35">
@@ -19725,8 +19644,8 @@
       <c r="L461" t="s">
         <v>22</v>
       </c>
-      <c r="M461" t="str">
-        <v>High Sales</v>
+      <c r="M461" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.35">
@@ -19766,8 +19685,8 @@
       <c r="L462" t="s">
         <v>41</v>
       </c>
-      <c r="M462" t="str">
-        <v>High Sales</v>
+      <c r="M462" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="463" spans="1:13" x14ac:dyDescent="0.35">
@@ -19807,8 +19726,8 @@
       <c r="L463" t="s">
         <v>35</v>
       </c>
-      <c r="M463" t="str">
-        <v>High Sales</v>
+      <c r="M463" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.35">
@@ -19848,8 +19767,8 @@
       <c r="L464" t="s">
         <v>22</v>
       </c>
-      <c r="M464" t="str">
-        <v>High Sales</v>
+      <c r="M464" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.35">
@@ -19889,8 +19808,8 @@
       <c r="L465" t="s">
         <v>24</v>
       </c>
-      <c r="M465" t="str">
-        <v>High Sales</v>
+      <c r="M465" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="466" spans="1:13" x14ac:dyDescent="0.35">
@@ -19930,8 +19849,8 @@
       <c r="L466" t="s">
         <v>41</v>
       </c>
-      <c r="M466" t="str">
-        <v>High Sales</v>
+      <c r="M466" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.35">
@@ -19971,8 +19890,8 @@
       <c r="L467" t="s">
         <v>31</v>
       </c>
-      <c r="M467" t="str">
-        <v>High Sales</v>
+      <c r="M467" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.35">
@@ -20012,8 +19931,8 @@
       <c r="L468" t="s">
         <v>31</v>
       </c>
-      <c r="M468" t="str">
-        <v>High Sales</v>
+      <c r="M468" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.35">
@@ -20053,8 +19972,8 @@
       <c r="L469" t="s">
         <v>16</v>
       </c>
-      <c r="M469" t="str">
-        <v>High Sales</v>
+      <c r="M469" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="470" spans="1:13" x14ac:dyDescent="0.35">
@@ -20094,8 +20013,8 @@
       <c r="L470" t="s">
         <v>38</v>
       </c>
-      <c r="M470" t="str">
-        <v>High Sales</v>
+      <c r="M470" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.35">
@@ -20135,8 +20054,8 @@
       <c r="L471" t="s">
         <v>41</v>
       </c>
-      <c r="M471" t="str">
-        <v>High Sales</v>
+      <c r="M471" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="472" spans="1:13" x14ac:dyDescent="0.35">
@@ -20176,8 +20095,8 @@
       <c r="L472" t="s">
         <v>27</v>
       </c>
-      <c r="M472" t="str">
-        <v>High Sales</v>
+      <c r="M472" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="473" spans="1:13" x14ac:dyDescent="0.35">
@@ -20217,8 +20136,8 @@
       <c r="L473" t="s">
         <v>30</v>
       </c>
-      <c r="M473" t="str">
-        <v>High Sales</v>
+      <c r="M473" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="474" spans="1:13" x14ac:dyDescent="0.35">
@@ -20258,8 +20177,8 @@
       <c r="L474" t="s">
         <v>31</v>
       </c>
-      <c r="M474" t="str">
-        <v>High Sales</v>
+      <c r="M474" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.35">
@@ -20299,8 +20218,8 @@
       <c r="L475" t="s">
         <v>31</v>
       </c>
-      <c r="M475" t="str">
-        <v>High Sales</v>
+      <c r="M475" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.35">
@@ -20340,8 +20259,8 @@
       <c r="L476" t="s">
         <v>35</v>
       </c>
-      <c r="M476" t="str">
-        <v>High Sales</v>
+      <c r="M476" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.35">
@@ -20381,8 +20300,8 @@
       <c r="L477" t="s">
         <v>22</v>
       </c>
-      <c r="M477" t="str">
-        <v>High Sales</v>
+      <c r="M477" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.35">
@@ -20422,8 +20341,8 @@
       <c r="L478" t="s">
         <v>22</v>
       </c>
-      <c r="M478" t="str">
-        <v>High Sales</v>
+      <c r="M478" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.35">
@@ -20463,8 +20382,8 @@
       <c r="L479" t="s">
         <v>41</v>
       </c>
-      <c r="M479" t="str">
-        <v>High Sales</v>
+      <c r="M479" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.35">
@@ -20504,8 +20423,8 @@
       <c r="L480" t="s">
         <v>27</v>
       </c>
-      <c r="M480" t="str">
-        <v>High Sales</v>
+      <c r="M480" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.35">
@@ -20545,8 +20464,8 @@
       <c r="L481" t="s">
         <v>29</v>
       </c>
-      <c r="M481" t="str">
-        <v>High Sales</v>
+      <c r="M481" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.35">
@@ -20586,8 +20505,8 @@
       <c r="L482" t="s">
         <v>30</v>
       </c>
-      <c r="M482" t="str">
-        <v>High Sales</v>
+      <c r="M482" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="483" spans="1:13" x14ac:dyDescent="0.35">
@@ -20627,8 +20546,8 @@
       <c r="L483" t="s">
         <v>31</v>
       </c>
-      <c r="M483" t="str">
-        <v>High Sales</v>
+      <c r="M483" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="484" spans="1:13" x14ac:dyDescent="0.35">
@@ -20668,8 +20587,8 @@
       <c r="L484" t="s">
         <v>31</v>
       </c>
-      <c r="M484" t="str">
-        <v>High Sales</v>
+      <c r="M484" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="485" spans="1:13" x14ac:dyDescent="0.35">
@@ -20709,8 +20628,8 @@
       <c r="L485" t="s">
         <v>35</v>
       </c>
-      <c r="M485" t="str">
-        <v>High Sales</v>
+      <c r="M485" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.35">
@@ -20750,8 +20669,8 @@
       <c r="L486" t="s">
         <v>22</v>
       </c>
-      <c r="M486" t="str">
-        <v>High Sales</v>
+      <c r="M486" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="487" spans="1:13" x14ac:dyDescent="0.35">
@@ -20791,8 +20710,8 @@
       <c r="L487" t="s">
         <v>16</v>
       </c>
-      <c r="M487" t="str">
-        <v>High Sales</v>
+      <c r="M487" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="488" spans="1:13" x14ac:dyDescent="0.35">
@@ -20832,8 +20751,8 @@
       <c r="L488" t="s">
         <v>34</v>
       </c>
-      <c r="M488" t="str">
-        <v>High Sales</v>
+      <c r="M488" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="489" spans="1:13" x14ac:dyDescent="0.35">
@@ -20873,8 +20792,8 @@
       <c r="L489" t="s">
         <v>24</v>
       </c>
-      <c r="M489" t="str">
-        <v>High Sales</v>
+      <c r="M489" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="490" spans="1:13" x14ac:dyDescent="0.35">
@@ -20914,8 +20833,8 @@
       <c r="L490" t="s">
         <v>38</v>
       </c>
-      <c r="M490" t="str">
-        <v>High Sales</v>
+      <c r="M490" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="491" spans="1:13" x14ac:dyDescent="0.35">
@@ -20955,8 +20874,8 @@
       <c r="L491" t="s">
         <v>41</v>
       </c>
-      <c r="M491" t="str">
-        <v>High Sales</v>
+      <c r="M491" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="492" spans="1:13" x14ac:dyDescent="0.35">
@@ -20996,8 +20915,8 @@
       <c r="L492" t="s">
         <v>29</v>
       </c>
-      <c r="M492" t="str">
-        <v>High Sales</v>
+      <c r="M492" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="493" spans="1:13" x14ac:dyDescent="0.35">
@@ -21037,8 +20956,8 @@
       <c r="L493" t="s">
         <v>30</v>
       </c>
-      <c r="M493" t="str">
-        <v>High Sales</v>
+      <c r="M493" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="494" spans="1:13" x14ac:dyDescent="0.35">
@@ -21078,8 +20997,8 @@
       <c r="L494" t="s">
         <v>22</v>
       </c>
-      <c r="M494" t="str">
-        <v>High Sales</v>
+      <c r="M494" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="495" spans="1:13" x14ac:dyDescent="0.35">
@@ -21119,8 +21038,8 @@
       <c r="L495" t="s">
         <v>22</v>
       </c>
-      <c r="M495" t="str">
-        <v>High Sales</v>
+      <c r="M495" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="496" spans="1:13" x14ac:dyDescent="0.35">
@@ -21160,8 +21079,8 @@
       <c r="L496" t="s">
         <v>31</v>
       </c>
-      <c r="M496" t="str">
-        <v>High Sales</v>
+      <c r="M496" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="497" spans="1:13" x14ac:dyDescent="0.35">
@@ -21201,8 +21120,8 @@
       <c r="L497" t="s">
         <v>38</v>
       </c>
-      <c r="M497" t="str">
-        <v>High Sales</v>
+      <c r="M497" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="498" spans="1:13" x14ac:dyDescent="0.35">
@@ -21242,8 +21161,8 @@
       <c r="L498" t="s">
         <v>31</v>
       </c>
-      <c r="M498" t="str">
-        <v>High Sales</v>
+      <c r="M498" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="499" spans="1:13" x14ac:dyDescent="0.35">
@@ -21283,8 +21202,8 @@
       <c r="L499" t="s">
         <v>16</v>
       </c>
-      <c r="M499" t="str">
-        <v>High Sales</v>
+      <c r="M499" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="500" spans="1:13" x14ac:dyDescent="0.35">
@@ -21324,8 +21243,8 @@
       <c r="L500" t="s">
         <v>31</v>
       </c>
-      <c r="M500" t="str">
-        <v>High Sales</v>
+      <c r="M500" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="501" spans="1:13" x14ac:dyDescent="0.35">
@@ -21365,8 +21284,8 @@
       <c r="L501" t="s">
         <v>24</v>
       </c>
-      <c r="M501" t="str">
-        <v>High Sales</v>
+      <c r="M501" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="502" spans="1:13" x14ac:dyDescent="0.35">
@@ -21406,8 +21325,8 @@
       <c r="L502" t="s">
         <v>30</v>
       </c>
-      <c r="M502" t="str">
-        <v>High Sales</v>
+      <c r="M502" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="503" spans="1:13" x14ac:dyDescent="0.35">
@@ -21447,8 +21366,8 @@
       <c r="L503" t="s">
         <v>27</v>
       </c>
-      <c r="M503" t="str">
-        <v>High Sales</v>
+      <c r="M503" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="504" spans="1:13" x14ac:dyDescent="0.35">
@@ -21488,8 +21407,8 @@
       <c r="L504" t="s">
         <v>31</v>
       </c>
-      <c r="M504" t="str">
-        <v>High Sales</v>
+      <c r="M504" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="505" spans="1:13" x14ac:dyDescent="0.35">
@@ -21529,8 +21448,8 @@
       <c r="L505" t="s">
         <v>34</v>
       </c>
-      <c r="M505" t="str">
-        <v>High Sales</v>
+      <c r="M505" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="506" spans="1:13" x14ac:dyDescent="0.35">
@@ -21570,8 +21489,8 @@
       <c r="L506" t="s">
         <v>24</v>
       </c>
-      <c r="M506" t="str">
-        <v>High Sales</v>
+      <c r="M506" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="507" spans="1:13" x14ac:dyDescent="0.35">
@@ -21611,8 +21530,8 @@
       <c r="L507" t="s">
         <v>27</v>
       </c>
-      <c r="M507" t="str">
-        <v>High Sales</v>
+      <c r="M507" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="508" spans="1:13" x14ac:dyDescent="0.35">
@@ -21652,8 +21571,8 @@
       <c r="L508" t="s">
         <v>31</v>
       </c>
-      <c r="M508" t="str">
-        <v>High Sales</v>
+      <c r="M508" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="509" spans="1:13" x14ac:dyDescent="0.35">
@@ -21693,8 +21612,8 @@
       <c r="L509" t="s">
         <v>35</v>
       </c>
-      <c r="M509" t="str">
-        <v>High Sales</v>
+      <c r="M509" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="510" spans="1:13" x14ac:dyDescent="0.35">
@@ -21734,8 +21653,8 @@
       <c r="L510" t="s">
         <v>35</v>
       </c>
-      <c r="M510" t="str">
-        <v>High Sales</v>
+      <c r="M510" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="511" spans="1:13" x14ac:dyDescent="0.35">
@@ -21775,8 +21694,8 @@
       <c r="L511" t="s">
         <v>16</v>
       </c>
-      <c r="M511" t="str">
-        <v>High Sales</v>
+      <c r="M511" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="512" spans="1:13" x14ac:dyDescent="0.35">
@@ -21816,8 +21735,8 @@
       <c r="L512" t="s">
         <v>31</v>
       </c>
-      <c r="M512" t="str">
-        <v>High Sales</v>
+      <c r="M512" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="513" spans="1:13" x14ac:dyDescent="0.35">
@@ -21857,8 +21776,8 @@
       <c r="L513" t="s">
         <v>22</v>
       </c>
-      <c r="M513" t="str">
-        <v>High Sales</v>
+      <c r="M513" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="514" spans="1:13" x14ac:dyDescent="0.35">
@@ -21898,8 +21817,8 @@
       <c r="L514" t="s">
         <v>16</v>
       </c>
-      <c r="M514" t="str">
-        <v>High Sales</v>
+      <c r="M514" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="515" spans="1:13" x14ac:dyDescent="0.35">
@@ -21939,8 +21858,8 @@
       <c r="L515" t="s">
         <v>24</v>
       </c>
-      <c r="M515" t="str">
-        <v>High Sales</v>
+      <c r="M515" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="516" spans="1:13" x14ac:dyDescent="0.35">
@@ -21980,8 +21899,8 @@
       <c r="L516" t="s">
         <v>27</v>
       </c>
-      <c r="M516" t="str">
-        <v>High Sales</v>
+      <c r="M516" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="517" spans="1:13" x14ac:dyDescent="0.35">
@@ -22021,8 +21940,8 @@
       <c r="L517" t="s">
         <v>27</v>
       </c>
-      <c r="M517" t="str">
-        <v>High Sales</v>
+      <c r="M517" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.35">
@@ -22062,8 +21981,8 @@
       <c r="L518" t="s">
         <v>27</v>
       </c>
-      <c r="M518" t="str">
-        <v>High Sales</v>
+      <c r="M518" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="519" spans="1:13" x14ac:dyDescent="0.35">
@@ -22103,8 +22022,8 @@
       <c r="L519" t="s">
         <v>29</v>
       </c>
-      <c r="M519" t="str">
-        <v>High Sales</v>
+      <c r="M519" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="520" spans="1:13" x14ac:dyDescent="0.35">
@@ -22144,8 +22063,8 @@
       <c r="L520" t="s">
         <v>29</v>
       </c>
-      <c r="M520" t="str">
-        <v>High Sales</v>
+      <c r="M520" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="521" spans="1:13" x14ac:dyDescent="0.35">
@@ -22185,8 +22104,8 @@
       <c r="L521" t="s">
         <v>31</v>
       </c>
-      <c r="M521" t="str">
-        <v>High Sales</v>
+      <c r="M521" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="522" spans="1:13" x14ac:dyDescent="0.35">
@@ -22226,8 +22145,8 @@
       <c r="L522" t="s">
         <v>31</v>
       </c>
-      <c r="M522" t="str">
-        <v>High Sales</v>
+      <c r="M522" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="523" spans="1:13" x14ac:dyDescent="0.35">
@@ -22267,8 +22186,8 @@
       <c r="L523" t="s">
         <v>35</v>
       </c>
-      <c r="M523" t="str">
-        <v>High Sales</v>
+      <c r="M523" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="524" spans="1:13" x14ac:dyDescent="0.35">
@@ -22308,8 +22227,8 @@
       <c r="L524" t="s">
         <v>30</v>
       </c>
-      <c r="M524" t="str">
-        <v>High Sales</v>
+      <c r="M524" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="525" spans="1:13" x14ac:dyDescent="0.35">
@@ -22349,8 +22268,8 @@
       <c r="L525" t="s">
         <v>30</v>
       </c>
-      <c r="M525" t="str">
-        <v>High Sales</v>
+      <c r="M525" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="526" spans="1:13" x14ac:dyDescent="0.35">
@@ -22390,8 +22309,8 @@
       <c r="L526" t="s">
         <v>31</v>
       </c>
-      <c r="M526" t="str">
-        <v>High Sales</v>
+      <c r="M526" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="527" spans="1:13" x14ac:dyDescent="0.35">
@@ -22431,8 +22350,8 @@
       <c r="L527" t="s">
         <v>35</v>
       </c>
-      <c r="M527" t="str">
-        <v>High Sales</v>
+      <c r="M527" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="528" spans="1:13" x14ac:dyDescent="0.35">
@@ -22472,8 +22391,8 @@
       <c r="L528" t="s">
         <v>16</v>
       </c>
-      <c r="M528" t="str">
-        <v>High Sales</v>
+      <c r="M528" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="529" spans="1:13" x14ac:dyDescent="0.35">
@@ -22513,8 +22432,8 @@
       <c r="L529" t="s">
         <v>16</v>
       </c>
-      <c r="M529" t="str">
-        <v>High Sales</v>
+      <c r="M529" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="530" spans="1:13" x14ac:dyDescent="0.35">
@@ -22554,8 +22473,8 @@
       <c r="L530" t="s">
         <v>35</v>
       </c>
-      <c r="M530" t="str">
-        <v>High Sales</v>
+      <c r="M530" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="531" spans="1:13" x14ac:dyDescent="0.35">
@@ -22595,8 +22514,8 @@
       <c r="L531" t="s">
         <v>16</v>
       </c>
-      <c r="M531" t="str">
-        <v>High Sales</v>
+      <c r="M531" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="532" spans="1:13" x14ac:dyDescent="0.35">
@@ -22636,8 +22555,8 @@
       <c r="L532" t="s">
         <v>16</v>
       </c>
-      <c r="M532" t="str">
-        <v>High Sales</v>
+      <c r="M532" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="533" spans="1:13" x14ac:dyDescent="0.35">
@@ -22677,8 +22596,8 @@
       <c r="L533" t="s">
         <v>41</v>
       </c>
-      <c r="M533" t="str">
-        <v>High Sales</v>
+      <c r="M533" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="534" spans="1:13" x14ac:dyDescent="0.35">
@@ -22718,8 +22637,8 @@
       <c r="L534" t="s">
         <v>30</v>
       </c>
-      <c r="M534" t="str">
-        <v>High Sales</v>
+      <c r="M534" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="535" spans="1:13" x14ac:dyDescent="0.35">
@@ -22759,8 +22678,8 @@
       <c r="L535" t="s">
         <v>31</v>
       </c>
-      <c r="M535" t="str">
-        <v>High Sales</v>
+      <c r="M535" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="536" spans="1:13" x14ac:dyDescent="0.35">
@@ -22800,8 +22719,8 @@
       <c r="L536" t="s">
         <v>22</v>
       </c>
-      <c r="M536" t="str">
-        <v>High Sales</v>
+      <c r="M536" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="537" spans="1:13" x14ac:dyDescent="0.35">
@@ -22841,8 +22760,8 @@
       <c r="L537" t="s">
         <v>30</v>
       </c>
-      <c r="M537" t="str">
-        <v>High Sales</v>
+      <c r="M537" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="538" spans="1:13" x14ac:dyDescent="0.35">
@@ -22882,8 +22801,8 @@
       <c r="L538" t="s">
         <v>20</v>
       </c>
-      <c r="M538" t="str">
-        <v>High Sales</v>
+      <c r="M538" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="539" spans="1:13" x14ac:dyDescent="0.35">
@@ -22923,8 +22842,8 @@
       <c r="L539" t="s">
         <v>30</v>
       </c>
-      <c r="M539" t="str">
-        <v>High Sales</v>
+      <c r="M539" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="540" spans="1:13" x14ac:dyDescent="0.35">
@@ -22964,8 +22883,8 @@
       <c r="L540" t="s">
         <v>31</v>
       </c>
-      <c r="M540" t="str">
-        <v>High Sales</v>
+      <c r="M540" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="541" spans="1:13" x14ac:dyDescent="0.35">
@@ -23005,8 +22924,8 @@
       <c r="L541" t="s">
         <v>35</v>
       </c>
-      <c r="M541" t="str">
-        <v>High Sales</v>
+      <c r="M541" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="542" spans="1:13" x14ac:dyDescent="0.35">
@@ -23046,8 +22965,8 @@
       <c r="L542" t="s">
         <v>24</v>
       </c>
-      <c r="M542" t="str">
-        <v>High Sales</v>
+      <c r="M542" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="543" spans="1:13" x14ac:dyDescent="0.35">
@@ -23087,8 +23006,8 @@
       <c r="L543" t="s">
         <v>38</v>
       </c>
-      <c r="M543" t="str">
-        <v>High Sales</v>
+      <c r="M543" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="544" spans="1:13" x14ac:dyDescent="0.35">
@@ -23128,8 +23047,8 @@
       <c r="L544" t="s">
         <v>30</v>
       </c>
-      <c r="M544" t="str">
-        <v>High Sales</v>
+      <c r="M544" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="545" spans="1:13" x14ac:dyDescent="0.35">
@@ -23169,8 +23088,8 @@
       <c r="L545" t="s">
         <v>31</v>
       </c>
-      <c r="M545" t="str">
-        <v>High Sales</v>
+      <c r="M545" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="546" spans="1:13" x14ac:dyDescent="0.35">
@@ -23210,8 +23129,8 @@
       <c r="L546" t="s">
         <v>31</v>
       </c>
-      <c r="M546" t="str">
-        <v>High Sales</v>
+      <c r="M546" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="547" spans="1:13" x14ac:dyDescent="0.35">
@@ -23251,8 +23170,8 @@
       <c r="L547" t="s">
         <v>22</v>
       </c>
-      <c r="M547" t="str">
-        <v>High Sales</v>
+      <c r="M547" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="548" spans="1:13" x14ac:dyDescent="0.35">
@@ -23292,8 +23211,8 @@
       <c r="L548" t="s">
         <v>16</v>
       </c>
-      <c r="M548" t="str">
-        <v>High Sales</v>
+      <c r="M548" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="549" spans="1:13" x14ac:dyDescent="0.35">
@@ -23333,8 +23252,8 @@
       <c r="L549" t="s">
         <v>20</v>
       </c>
-      <c r="M549" t="str">
-        <v>High Sales</v>
+      <c r="M549" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="550" spans="1:13" x14ac:dyDescent="0.35">
@@ -23374,8 +23293,8 @@
       <c r="L550" t="s">
         <v>31</v>
       </c>
-      <c r="M550" t="str">
-        <v>High Sales</v>
+      <c r="M550" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="551" spans="1:13" x14ac:dyDescent="0.35">
@@ -23415,8 +23334,8 @@
       <c r="L551" t="s">
         <v>31</v>
       </c>
-      <c r="M551" t="str">
-        <v>High Sales</v>
+      <c r="M551" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="552" spans="1:13" x14ac:dyDescent="0.35">
@@ -23456,8 +23375,8 @@
       <c r="L552" t="s">
         <v>31</v>
       </c>
-      <c r="M552" t="str">
-        <v>High Sales</v>
+      <c r="M552" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="553" spans="1:13" x14ac:dyDescent="0.35">
@@ -23497,8 +23416,8 @@
       <c r="L553" t="s">
         <v>35</v>
       </c>
-      <c r="M553" t="str">
-        <v>High Sales</v>
+      <c r="M553" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="554" spans="1:13" x14ac:dyDescent="0.35">
@@ -23538,8 +23457,8 @@
       <c r="L554" t="s">
         <v>35</v>
       </c>
-      <c r="M554" t="str">
-        <v>High Sales</v>
+      <c r="M554" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="555" spans="1:13" x14ac:dyDescent="0.35">
@@ -23579,8 +23498,8 @@
       <c r="L555" t="s">
         <v>35</v>
       </c>
-      <c r="M555" t="str">
-        <v>High Sales</v>
+      <c r="M555" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="556" spans="1:13" x14ac:dyDescent="0.35">
@@ -23620,8 +23539,8 @@
       <c r="L556" t="s">
         <v>35</v>
       </c>
-      <c r="M556" t="str">
-        <v>High Sales</v>
+      <c r="M556" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="557" spans="1:13" x14ac:dyDescent="0.35">
@@ -23661,8 +23580,8 @@
       <c r="L557" t="s">
         <v>22</v>
       </c>
-      <c r="M557" t="str">
-        <v>High Sales</v>
+      <c r="M557" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="558" spans="1:13" x14ac:dyDescent="0.35">
@@ -23702,8 +23621,8 @@
       <c r="L558" t="s">
         <v>22</v>
       </c>
-      <c r="M558" t="str">
-        <v>High Sales</v>
+      <c r="M558" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="559" spans="1:13" x14ac:dyDescent="0.35">
@@ -23743,8 +23662,8 @@
       <c r="L559" t="s">
         <v>27</v>
       </c>
-      <c r="M559" t="str">
-        <v>High Sales</v>
+      <c r="M559" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="560" spans="1:13" x14ac:dyDescent="0.35">
@@ -23784,8 +23703,8 @@
       <c r="L560" t="s">
         <v>31</v>
       </c>
-      <c r="M560" t="str">
-        <v>High Sales</v>
+      <c r="M560" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="561" spans="1:13" x14ac:dyDescent="0.35">
@@ -23825,8 +23744,8 @@
       <c r="L561" t="s">
         <v>31</v>
       </c>
-      <c r="M561" t="str">
-        <v>High Sales</v>
+      <c r="M561" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="562" spans="1:13" x14ac:dyDescent="0.35">
@@ -23866,8 +23785,8 @@
       <c r="L562" t="s">
         <v>41</v>
       </c>
-      <c r="M562" t="str">
-        <v>High Sales</v>
+      <c r="M562" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="563" spans="1:13" x14ac:dyDescent="0.35">
@@ -23907,8 +23826,8 @@
       <c r="L563" t="s">
         <v>27</v>
       </c>
-      <c r="M563" t="str">
-        <v>High Sales</v>
+      <c r="M563" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="564" spans="1:13" x14ac:dyDescent="0.35">
@@ -23948,8 +23867,8 @@
       <c r="L564" t="s">
         <v>30</v>
       </c>
-      <c r="M564" t="str">
-        <v>High Sales</v>
+      <c r="M564" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="565" spans="1:13" x14ac:dyDescent="0.35">
@@ -23989,8 +23908,8 @@
       <c r="L565" t="s">
         <v>31</v>
       </c>
-      <c r="M565" t="str">
-        <v>High Sales</v>
+      <c r="M565" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="566" spans="1:13" x14ac:dyDescent="0.35">
@@ -24030,8 +23949,8 @@
       <c r="L566" t="s">
         <v>35</v>
       </c>
-      <c r="M566" t="str">
-        <v>High Sales</v>
+      <c r="M566" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="567" spans="1:13" x14ac:dyDescent="0.35">
@@ -24071,8 +23990,8 @@
       <c r="L567" t="s">
         <v>22</v>
       </c>
-      <c r="M567" t="str">
-        <v>High Sales</v>
+      <c r="M567" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="568" spans="1:13" x14ac:dyDescent="0.35">
@@ -24112,8 +24031,8 @@
       <c r="L568" t="s">
         <v>34</v>
       </c>
-      <c r="M568" t="str">
-        <v>High Sales</v>
+      <c r="M568" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="569" spans="1:13" x14ac:dyDescent="0.35">
@@ -24153,8 +24072,8 @@
       <c r="L569" t="s">
         <v>27</v>
       </c>
-      <c r="M569" t="str">
-        <v>High Sales</v>
+      <c r="M569" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="570" spans="1:13" x14ac:dyDescent="0.35">
@@ -24194,8 +24113,8 @@
       <c r="L570" t="s">
         <v>31</v>
       </c>
-      <c r="M570" t="str">
-        <v>High Sales</v>
+      <c r="M570" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="571" spans="1:13" x14ac:dyDescent="0.35">
@@ -24235,8 +24154,8 @@
       <c r="L571" t="s">
         <v>35</v>
       </c>
-      <c r="M571" t="str">
-        <v>High Sales</v>
+      <c r="M571" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="572" spans="1:13" x14ac:dyDescent="0.35">
@@ -24276,8 +24195,8 @@
       <c r="L572" t="s">
         <v>16</v>
       </c>
-      <c r="M572" t="str">
-        <v>High Sales</v>
+      <c r="M572" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="573" spans="1:13" x14ac:dyDescent="0.35">
@@ -24317,8 +24236,8 @@
       <c r="L573" t="s">
         <v>41</v>
       </c>
-      <c r="M573" t="str">
-        <v>High Sales</v>
+      <c r="M573" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="574" spans="1:13" x14ac:dyDescent="0.35">
@@ -24358,8 +24277,8 @@
       <c r="L574" t="s">
         <v>22</v>
       </c>
-      <c r="M574" t="str">
-        <v>High Sales</v>
+      <c r="M574" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="575" spans="1:13" x14ac:dyDescent="0.35">
@@ -24399,8 +24318,8 @@
       <c r="L575" t="s">
         <v>24</v>
       </c>
-      <c r="M575" t="str">
-        <v>High Sales</v>
+      <c r="M575" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="576" spans="1:13" x14ac:dyDescent="0.35">
@@ -24440,8 +24359,8 @@
       <c r="L576" t="s">
         <v>22</v>
       </c>
-      <c r="M576" t="str">
-        <v>High Sales</v>
+      <c r="M576" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="577" spans="1:13" x14ac:dyDescent="0.35">
@@ -24481,8 +24400,8 @@
       <c r="L577" t="s">
         <v>30</v>
       </c>
-      <c r="M577" t="str">
-        <v>High Sales</v>
+      <c r="M577" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="578" spans="1:13" x14ac:dyDescent="0.35">
@@ -24522,8 +24441,8 @@
       <c r="L578" t="s">
         <v>20</v>
       </c>
-      <c r="M578" t="str">
-        <v>High Sales</v>
+      <c r="M578" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="579" spans="1:13" x14ac:dyDescent="0.35">
@@ -24563,8 +24482,8 @@
       <c r="L579" t="s">
         <v>20</v>
       </c>
-      <c r="M579" t="str">
-        <v>High Sales</v>
+      <c r="M579" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="580" spans="1:13" x14ac:dyDescent="0.35">
@@ -24604,8 +24523,8 @@
       <c r="L580" t="s">
         <v>24</v>
       </c>
-      <c r="M580" t="str">
-        <v>High Sales</v>
+      <c r="M580" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="581" spans="1:13" x14ac:dyDescent="0.35">
@@ -24645,8 +24564,8 @@
       <c r="L581" t="s">
         <v>24</v>
       </c>
-      <c r="M581" t="str">
-        <v>High Sales</v>
+      <c r="M581" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="582" spans="1:13" x14ac:dyDescent="0.35">
@@ -24686,8 +24605,8 @@
       <c r="L582" t="s">
         <v>30</v>
       </c>
-      <c r="M582" t="str">
-        <v>High Sales</v>
+      <c r="M582" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="583" spans="1:13" x14ac:dyDescent="0.35">
@@ -24727,8 +24646,8 @@
       <c r="L583" t="s">
         <v>16</v>
       </c>
-      <c r="M583" t="str">
-        <v>High Sales</v>
+      <c r="M583" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="584" spans="1:13" x14ac:dyDescent="0.35">
@@ -24768,8 +24687,8 @@
       <c r="L584" t="s">
         <v>34</v>
       </c>
-      <c r="M584" t="str">
-        <v>High Sales</v>
+      <c r="M584" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="585" spans="1:13" x14ac:dyDescent="0.35">
@@ -24809,8 +24728,8 @@
       <c r="L585" t="s">
         <v>20</v>
       </c>
-      <c r="M585" t="str">
-        <v>High Sales</v>
+      <c r="M585" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="586" spans="1:13" x14ac:dyDescent="0.35">
@@ -24850,8 +24769,8 @@
       <c r="L586" t="s">
         <v>27</v>
       </c>
-      <c r="M586" t="str">
-        <v>High Sales</v>
+      <c r="M586" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="587" spans="1:13" x14ac:dyDescent="0.35">
@@ -24891,8 +24810,8 @@
       <c r="L587" t="s">
         <v>31</v>
       </c>
-      <c r="M587" t="str">
-        <v>High Sales</v>
+      <c r="M587" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="588" spans="1:13" x14ac:dyDescent="0.35">
@@ -24932,8 +24851,8 @@
       <c r="L588" t="s">
         <v>16</v>
       </c>
-      <c r="M588" t="str">
-        <v>High Sales</v>
+      <c r="M588" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="589" spans="1:13" x14ac:dyDescent="0.35">
@@ -24973,8 +24892,8 @@
       <c r="L589" t="s">
         <v>16</v>
       </c>
-      <c r="M589" t="str">
-        <v>High Sales</v>
+      <c r="M589" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="590" spans="1:13" x14ac:dyDescent="0.35">
@@ -25014,8 +24933,8 @@
       <c r="L590" t="s">
         <v>34</v>
       </c>
-      <c r="M590" t="str">
-        <v>High Sales</v>
+      <c r="M590" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="591" spans="1:13" x14ac:dyDescent="0.35">
@@ -25055,8 +24974,8 @@
       <c r="L591" t="s">
         <v>34</v>
       </c>
-      <c r="M591" t="str">
-        <v>High Sales</v>
+      <c r="M591" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="592" spans="1:13" x14ac:dyDescent="0.35">
@@ -25096,8 +25015,8 @@
       <c r="L592" t="s">
         <v>20</v>
       </c>
-      <c r="M592" t="str">
-        <v>High Sales</v>
+      <c r="M592" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="593" spans="1:13" x14ac:dyDescent="0.35">
@@ -25137,8 +25056,8 @@
       <c r="L593" t="s">
         <v>20</v>
       </c>
-      <c r="M593" t="str">
-        <v>High Sales</v>
+      <c r="M593" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="594" spans="1:13" x14ac:dyDescent="0.35">
@@ -25178,8 +25097,8 @@
       <c r="L594" t="s">
         <v>27</v>
       </c>
-      <c r="M594" t="str">
-        <v>High Sales</v>
+      <c r="M594" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="595" spans="1:13" x14ac:dyDescent="0.35">
@@ -25219,8 +25138,8 @@
       <c r="L595" t="s">
         <v>29</v>
       </c>
-      <c r="M595" t="str">
-        <v>High Sales</v>
+      <c r="M595" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="596" spans="1:13" x14ac:dyDescent="0.35">
@@ -25260,8 +25179,8 @@
       <c r="L596" t="s">
         <v>31</v>
       </c>
-      <c r="M596" t="str">
-        <v>High Sales</v>
+      <c r="M596" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="597" spans="1:13" x14ac:dyDescent="0.35">
@@ -25301,8 +25220,8 @@
       <c r="L597" t="s">
         <v>31</v>
       </c>
-      <c r="M597" t="str">
-        <v>High Sales</v>
+      <c r="M597" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="598" spans="1:13" x14ac:dyDescent="0.35">
@@ -25342,8 +25261,8 @@
       <c r="L598" t="s">
         <v>35</v>
       </c>
-      <c r="M598" t="str">
-        <v>High Sales</v>
+      <c r="M598" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="599" spans="1:13" x14ac:dyDescent="0.35">
@@ -25383,8 +25302,8 @@
       <c r="L599" t="s">
         <v>22</v>
       </c>
-      <c r="M599" t="str">
-        <v>High Sales</v>
+      <c r="M599" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="600" spans="1:13" x14ac:dyDescent="0.35">
@@ -25424,8 +25343,8 @@
       <c r="L600" t="s">
         <v>16</v>
       </c>
-      <c r="M600" t="str">
-        <v>High Sales</v>
+      <c r="M600" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="601" spans="1:13" x14ac:dyDescent="0.35">
@@ -25465,8 +25384,8 @@
       <c r="L601" t="s">
         <v>20</v>
       </c>
-      <c r="M601" t="str">
-        <v>High Sales</v>
+      <c r="M601" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="602" spans="1:13" x14ac:dyDescent="0.35">
@@ -25506,8 +25425,8 @@
       <c r="L602" t="s">
         <v>20</v>
       </c>
-      <c r="M602" t="str">
-        <v>High Sales</v>
+      <c r="M602" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="603" spans="1:13" x14ac:dyDescent="0.35">
@@ -25547,8 +25466,8 @@
       <c r="L603" t="s">
         <v>20</v>
       </c>
-      <c r="M603" t="str">
-        <v>High Sales</v>
+      <c r="M603" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="604" spans="1:13" x14ac:dyDescent="0.35">
@@ -25588,8 +25507,8 @@
       <c r="L604" t="s">
         <v>30</v>
       </c>
-      <c r="M604" t="str">
-        <v>High Sales</v>
+      <c r="M604" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="605" spans="1:13" x14ac:dyDescent="0.35">
@@ -25629,8 +25548,8 @@
       <c r="L605" t="s">
         <v>31</v>
       </c>
-      <c r="M605" t="str">
-        <v>High Sales</v>
+      <c r="M605" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="606" spans="1:13" x14ac:dyDescent="0.35">
@@ -25670,8 +25589,8 @@
       <c r="L606" t="s">
         <v>35</v>
       </c>
-      <c r="M606" t="str">
-        <v>High Sales</v>
+      <c r="M606" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="607" spans="1:13" x14ac:dyDescent="0.35">
@@ -25711,8 +25630,8 @@
       <c r="L607" t="s">
         <v>22</v>
       </c>
-      <c r="M607" t="str">
-        <v>High Sales</v>
+      <c r="M607" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="608" spans="1:13" x14ac:dyDescent="0.35">
@@ -25752,8 +25671,8 @@
       <c r="L608" t="s">
         <v>20</v>
       </c>
-      <c r="M608" t="str">
-        <v>High Sales</v>
+      <c r="M608" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="609" spans="1:13" x14ac:dyDescent="0.35">
@@ -25793,8 +25712,8 @@
       <c r="L609" t="s">
         <v>31</v>
       </c>
-      <c r="M609" t="str">
-        <v>High Sales</v>
+      <c r="M609" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="610" spans="1:13" x14ac:dyDescent="0.35">
@@ -25834,8 +25753,8 @@
       <c r="L610" t="s">
         <v>16</v>
       </c>
-      <c r="M610" t="str">
-        <v>High Sales</v>
+      <c r="M610" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="611" spans="1:13" x14ac:dyDescent="0.35">
@@ -25875,8 +25794,8 @@
       <c r="L611" t="s">
         <v>20</v>
       </c>
-      <c r="M611" t="str">
-        <v>High Sales</v>
+      <c r="M611" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="612" spans="1:13" x14ac:dyDescent="0.35">
@@ -25916,8 +25835,8 @@
       <c r="L612" t="s">
         <v>31</v>
       </c>
-      <c r="M612" t="str">
-        <v>High Sales</v>
+      <c r="M612" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="613" spans="1:13" x14ac:dyDescent="0.35">
@@ -25957,8 +25876,8 @@
       <c r="L613" t="s">
         <v>22</v>
       </c>
-      <c r="M613" t="str">
-        <v>High Sales</v>
+      <c r="M613" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="614" spans="1:13" x14ac:dyDescent="0.35">
@@ -25998,8 +25917,8 @@
       <c r="L614" t="s">
         <v>38</v>
       </c>
-      <c r="M614" t="str">
-        <v>High Sales</v>
+      <c r="M614" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="615" spans="1:13" x14ac:dyDescent="0.35">
@@ -26039,8 +25958,8 @@
       <c r="L615" t="s">
         <v>41</v>
       </c>
-      <c r="M615" t="str">
-        <v>High Sales</v>
+      <c r="M615" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="616" spans="1:13" x14ac:dyDescent="0.35">
@@ -26080,8 +25999,8 @@
       <c r="L616" t="s">
         <v>31</v>
       </c>
-      <c r="M616" t="str">
-        <v>High Sales</v>
+      <c r="M616" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="617" spans="1:13" x14ac:dyDescent="0.35">
@@ -26121,8 +26040,8 @@
       <c r="L617" t="s">
         <v>22</v>
       </c>
-      <c r="M617" t="str">
-        <v>High Sales</v>
+      <c r="M617" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="618" spans="1:13" x14ac:dyDescent="0.35">
@@ -26162,8 +26081,8 @@
       <c r="L618" t="s">
         <v>34</v>
       </c>
-      <c r="M618" t="str">
-        <v>High Sales</v>
+      <c r="M618" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="619" spans="1:13" x14ac:dyDescent="0.35">
@@ -26203,8 +26122,8 @@
       <c r="L619" t="s">
         <v>31</v>
       </c>
-      <c r="M619" t="str">
-        <v>High Sales</v>
+      <c r="M619" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="620" spans="1:13" x14ac:dyDescent="0.35">
@@ -26244,8 +26163,8 @@
       <c r="L620" t="s">
         <v>34</v>
       </c>
-      <c r="M620" t="str">
-        <v>High Sales</v>
+      <c r="M620" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="621" spans="1:13" x14ac:dyDescent="0.35">
@@ -26285,8 +26204,8 @@
       <c r="L621" t="s">
         <v>24</v>
       </c>
-      <c r="M621" t="str">
-        <v>High Sales</v>
+      <c r="M621" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="622" spans="1:13" x14ac:dyDescent="0.35">
@@ -26326,8 +26245,8 @@
       <c r="L622" t="s">
         <v>30</v>
       </c>
-      <c r="M622" t="str">
-        <v>High Sales</v>
+      <c r="M622" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="623" spans="1:13" x14ac:dyDescent="0.35">
@@ -26367,8 +26286,8 @@
       <c r="L623" t="s">
         <v>31</v>
       </c>
-      <c r="M623" t="str">
-        <v>High Sales</v>
+      <c r="M623" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="624" spans="1:13" x14ac:dyDescent="0.35">
@@ -26408,8 +26327,8 @@
       <c r="L624" t="s">
         <v>22</v>
       </c>
-      <c r="M624" t="str">
-        <v>High Sales</v>
+      <c r="M624" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="625" spans="1:13" x14ac:dyDescent="0.35">
@@ -26449,8 +26368,8 @@
       <c r="L625" t="s">
         <v>31</v>
       </c>
-      <c r="M625" t="str">
-        <v>High Sales</v>
+      <c r="M625" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="626" spans="1:13" x14ac:dyDescent="0.35">
@@ -26490,8 +26409,8 @@
       <c r="L626" t="s">
         <v>22</v>
       </c>
-      <c r="M626" t="str">
-        <v>High Sales</v>
+      <c r="M626" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="627" spans="1:13" x14ac:dyDescent="0.35">
@@ -26531,8 +26450,8 @@
       <c r="L627" t="s">
         <v>27</v>
       </c>
-      <c r="M627" t="str">
-        <v>High Sales</v>
+      <c r="M627" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="628" spans="1:13" x14ac:dyDescent="0.35">
@@ -26572,8 +26491,8 @@
       <c r="L628" t="s">
         <v>30</v>
       </c>
-      <c r="M628" t="str">
-        <v>High Sales</v>
+      <c r="M628" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="629" spans="1:13" x14ac:dyDescent="0.35">
@@ -26613,8 +26532,8 @@
       <c r="L629" t="s">
         <v>31</v>
       </c>
-      <c r="M629" t="str">
-        <v>High Sales</v>
+      <c r="M629" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="630" spans="1:13" x14ac:dyDescent="0.35">
@@ -26654,8 +26573,8 @@
       <c r="L630" t="s">
         <v>31</v>
       </c>
-      <c r="M630" t="str">
-        <v>High Sales</v>
+      <c r="M630" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="631" spans="1:13" x14ac:dyDescent="0.35">
@@ -26695,8 +26614,8 @@
       <c r="L631" t="s">
         <v>35</v>
       </c>
-      <c r="M631" t="str">
-        <v>High Sales</v>
+      <c r="M631" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="632" spans="1:13" x14ac:dyDescent="0.35">
@@ -26736,8 +26655,8 @@
       <c r="L632" t="s">
         <v>22</v>
       </c>
-      <c r="M632" t="str">
-        <v>High Sales</v>
+      <c r="M632" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="633" spans="1:13" x14ac:dyDescent="0.35">
@@ -26777,8 +26696,8 @@
       <c r="L633" t="s">
         <v>22</v>
       </c>
-      <c r="M633" t="str">
-        <v>High Sales</v>
+      <c r="M633" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="634" spans="1:13" x14ac:dyDescent="0.35">
@@ -26818,8 +26737,8 @@
       <c r="L634" t="s">
         <v>16</v>
       </c>
-      <c r="M634" t="str">
-        <v>High Sales</v>
+      <c r="M634" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="635" spans="1:13" x14ac:dyDescent="0.35">
@@ -26859,8 +26778,8 @@
       <c r="L635" t="s">
         <v>38</v>
       </c>
-      <c r="M635" t="str">
-        <v>High Sales</v>
+      <c r="M635" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="636" spans="1:13" x14ac:dyDescent="0.35">
@@ -26900,8 +26819,8 @@
       <c r="L636" t="s">
         <v>41</v>
       </c>
-      <c r="M636" t="str">
-        <v>High Sales</v>
+      <c r="M636" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="637" spans="1:13" x14ac:dyDescent="0.35">
@@ -26941,8 +26860,8 @@
       <c r="L637" t="s">
         <v>30</v>
       </c>
-      <c r="M637" t="str">
-        <v>High Sales</v>
+      <c r="M637" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="638" spans="1:13" x14ac:dyDescent="0.35">
@@ -26982,8 +26901,8 @@
       <c r="L638" t="s">
         <v>31</v>
       </c>
-      <c r="M638" t="str">
-        <v>High Sales</v>
+      <c r="M638" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="639" spans="1:13" x14ac:dyDescent="0.35">
@@ -27023,8 +26942,8 @@
       <c r="L639" t="s">
         <v>22</v>
       </c>
-      <c r="M639" t="str">
-        <v>High Sales</v>
+      <c r="M639" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="640" spans="1:13" x14ac:dyDescent="0.35">
@@ -27064,8 +26983,8 @@
       <c r="L640" t="s">
         <v>34</v>
       </c>
-      <c r="M640" t="str">
-        <v>High Sales</v>
+      <c r="M640" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="641" spans="1:13" x14ac:dyDescent="0.35">
@@ -27105,8 +27024,8 @@
       <c r="L641" t="s">
         <v>30</v>
       </c>
-      <c r="M641" t="str">
-        <v>High Sales</v>
+      <c r="M641" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="642" spans="1:13" x14ac:dyDescent="0.35">
@@ -27146,8 +27065,8 @@
       <c r="L642" t="s">
         <v>31</v>
       </c>
-      <c r="M642" t="str">
-        <v>High Sales</v>
+      <c r="M642" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="643" spans="1:13" x14ac:dyDescent="0.35">
@@ -27187,8 +27106,8 @@
       <c r="L643" t="s">
         <v>31</v>
       </c>
-      <c r="M643" t="str">
-        <v>High Sales</v>
+      <c r="M643" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="644" spans="1:13" x14ac:dyDescent="0.35">
@@ -27228,8 +27147,8 @@
       <c r="L644" t="s">
         <v>31</v>
       </c>
-      <c r="M644" t="str">
-        <v>High Sales</v>
+      <c r="M644" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="645" spans="1:13" x14ac:dyDescent="0.35">
@@ -27269,8 +27188,8 @@
       <c r="L645" t="s">
         <v>35</v>
       </c>
-      <c r="M645" t="str">
-        <v>High Sales</v>
+      <c r="M645" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="646" spans="1:13" x14ac:dyDescent="0.35">
@@ -27310,8 +27229,8 @@
       <c r="L646" t="s">
         <v>35</v>
       </c>
-      <c r="M646" t="str">
-        <v>High Sales</v>
+      <c r="M646" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="647" spans="1:13" x14ac:dyDescent="0.35">
@@ -27351,8 +27270,8 @@
       <c r="L647" t="s">
         <v>35</v>
       </c>
-      <c r="M647" t="str">
-        <v>High Sales</v>
+      <c r="M647" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="648" spans="1:13" x14ac:dyDescent="0.35">
@@ -27392,8 +27311,8 @@
       <c r="L648" t="s">
         <v>35</v>
       </c>
-      <c r="M648" t="str">
-        <v>High Sales</v>
+      <c r="M648" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="649" spans="1:13" x14ac:dyDescent="0.35">
@@ -27433,8 +27352,8 @@
       <c r="L649" t="s">
         <v>34</v>
       </c>
-      <c r="M649" t="str">
-        <v>High Sales</v>
+      <c r="M649" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="650" spans="1:13" x14ac:dyDescent="0.35">
@@ -27474,8 +27393,8 @@
       <c r="L650" t="s">
         <v>38</v>
       </c>
-      <c r="M650" t="str">
-        <v>High Sales</v>
+      <c r="M650" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="651" spans="1:13" x14ac:dyDescent="0.35">
@@ -27515,8 +27434,8 @@
       <c r="L651" t="s">
         <v>27</v>
       </c>
-      <c r="M651" t="str">
-        <v>High Sales</v>
+      <c r="M651" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="652" spans="1:13" x14ac:dyDescent="0.35">
@@ -27556,8 +27475,8 @@
       <c r="L652" t="s">
         <v>31</v>
       </c>
-      <c r="M652" t="str">
-        <v>High Sales</v>
+      <c r="M652" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="653" spans="1:13" x14ac:dyDescent="0.35">
@@ -27597,8 +27516,8 @@
       <c r="L653" t="s">
         <v>35</v>
       </c>
-      <c r="M653" t="str">
-        <v>High Sales</v>
+      <c r="M653" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="654" spans="1:13" x14ac:dyDescent="0.35">
@@ -27638,8 +27557,8 @@
       <c r="L654" t="s">
         <v>24</v>
       </c>
-      <c r="M654" t="str">
-        <v>High Sales</v>
+      <c r="M654" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="655" spans="1:13" x14ac:dyDescent="0.35">
@@ -27679,8 +27598,8 @@
       <c r="L655" t="s">
         <v>29</v>
       </c>
-      <c r="M655" t="str">
-        <v>High Sales</v>
+      <c r="M655" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="656" spans="1:13" x14ac:dyDescent="0.35">
@@ -27720,8 +27639,8 @@
       <c r="L656" t="s">
         <v>31</v>
       </c>
-      <c r="M656" t="str">
-        <v>High Sales</v>
+      <c r="M656" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="657" spans="1:13" x14ac:dyDescent="0.35">
@@ -27761,8 +27680,8 @@
       <c r="L657" t="s">
         <v>31</v>
       </c>
-      <c r="M657" t="str">
-        <v>High Sales</v>
+      <c r="M657" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="658" spans="1:13" x14ac:dyDescent="0.35">
@@ -27802,8 +27721,8 @@
       <c r="L658" t="s">
         <v>31</v>
       </c>
-      <c r="M658" t="str">
-        <v>High Sales</v>
+      <c r="M658" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="659" spans="1:13" x14ac:dyDescent="0.35">
@@ -27843,8 +27762,8 @@
       <c r="L659" t="s">
         <v>22</v>
       </c>
-      <c r="M659" t="str">
-        <v>High Sales</v>
+      <c r="M659" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="660" spans="1:13" x14ac:dyDescent="0.35">
@@ -27884,8 +27803,8 @@
       <c r="L660" t="s">
         <v>24</v>
       </c>
-      <c r="M660" t="str">
-        <v>High Sales</v>
+      <c r="M660" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="661" spans="1:13" x14ac:dyDescent="0.35">
@@ -27925,8 +27844,8 @@
       <c r="L661" t="s">
         <v>41</v>
       </c>
-      <c r="M661" t="str">
-        <v>High Sales</v>
+      <c r="M661" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="662" spans="1:13" x14ac:dyDescent="0.35">
@@ -27966,8 +27885,8 @@
       <c r="L662" t="s">
         <v>29</v>
       </c>
-      <c r="M662" t="str">
-        <v>High Sales</v>
+      <c r="M662" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="663" spans="1:13" x14ac:dyDescent="0.35">
@@ -28007,8 +27926,8 @@
       <c r="L663" t="s">
         <v>31</v>
       </c>
-      <c r="M663" t="str">
-        <v>High Sales</v>
+      <c r="M663" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="664" spans="1:13" x14ac:dyDescent="0.35">
@@ -28048,8 +27967,8 @@
       <c r="L664" t="s">
         <v>31</v>
       </c>
-      <c r="M664" t="str">
-        <v>High Sales</v>
+      <c r="M664" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="665" spans="1:13" x14ac:dyDescent="0.35">
@@ -28089,8 +28008,8 @@
       <c r="L665" t="s">
         <v>31</v>
       </c>
-      <c r="M665" t="str">
-        <v>High Sales</v>
+      <c r="M665" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="666" spans="1:13" x14ac:dyDescent="0.35">
@@ -28130,8 +28049,8 @@
       <c r="L666" t="s">
         <v>31</v>
       </c>
-      <c r="M666" t="str">
-        <v>High Sales</v>
+      <c r="M666" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="667" spans="1:13" x14ac:dyDescent="0.35">
@@ -28171,8 +28090,8 @@
       <c r="L667" t="s">
         <v>35</v>
       </c>
-      <c r="M667" t="str">
-        <v>High Sales</v>
+      <c r="M667" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="668" spans="1:13" x14ac:dyDescent="0.35">
@@ -28212,8 +28131,8 @@
       <c r="L668" t="s">
         <v>29</v>
       </c>
-      <c r="M668" t="str">
-        <v>High Sales</v>
+      <c r="M668" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="669" spans="1:13" x14ac:dyDescent="0.35">
@@ -28253,8 +28172,8 @@
       <c r="L669" t="s">
         <v>29</v>
       </c>
-      <c r="M669" t="str">
-        <v>High Sales</v>
+      <c r="M669" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="670" spans="1:13" x14ac:dyDescent="0.35">
@@ -28294,8 +28213,8 @@
       <c r="L670" t="s">
         <v>31</v>
       </c>
-      <c r="M670" t="str">
-        <v>High Sales</v>
+      <c r="M670" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="671" spans="1:13" x14ac:dyDescent="0.35">
@@ -28335,8 +28254,8 @@
       <c r="L671" t="s">
         <v>31</v>
       </c>
-      <c r="M671" t="str">
-        <v>High Sales</v>
+      <c r="M671" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="672" spans="1:13" x14ac:dyDescent="0.35">
@@ -28376,8 +28295,8 @@
       <c r="L672" t="s">
         <v>24</v>
       </c>
-      <c r="M672" t="str">
-        <v>High Sales</v>
+      <c r="M672" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="673" spans="1:13" x14ac:dyDescent="0.35">
@@ -28417,8 +28336,8 @@
       <c r="L673" t="s">
         <v>38</v>
       </c>
-      <c r="M673" t="str">
-        <v>High Sales</v>
+      <c r="M673" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="674" spans="1:13" x14ac:dyDescent="0.35">
@@ -28458,8 +28377,8 @@
       <c r="L674" t="s">
         <v>38</v>
       </c>
-      <c r="M674" t="str">
-        <v>High Sales</v>
+      <c r="M674" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="675" spans="1:13" x14ac:dyDescent="0.35">
@@ -28499,8 +28418,8 @@
       <c r="L675" t="s">
         <v>41</v>
       </c>
-      <c r="M675" t="str">
-        <v>High Sales</v>
+      <c r="M675" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="676" spans="1:13" x14ac:dyDescent="0.35">
@@ -28540,8 +28459,8 @@
       <c r="L676" t="s">
         <v>29</v>
       </c>
-      <c r="M676" t="str">
-        <v>High Sales</v>
+      <c r="M676" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="677" spans="1:13" x14ac:dyDescent="0.35">
@@ -28581,8 +28500,8 @@
       <c r="L677" t="s">
         <v>31</v>
       </c>
-      <c r="M677" t="str">
-        <v>High Sales</v>
+      <c r="M677" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="678" spans="1:13" x14ac:dyDescent="0.35">
@@ -28622,8 +28541,8 @@
       <c r="L678" t="s">
         <v>31</v>
       </c>
-      <c r="M678" t="str">
-        <v>High Sales</v>
+      <c r="M678" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="679" spans="1:13" x14ac:dyDescent="0.35">
@@ -28663,8 +28582,8 @@
       <c r="L679" t="s">
         <v>31</v>
       </c>
-      <c r="M679" t="str">
-        <v>High Sales</v>
+      <c r="M679" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="680" spans="1:13" x14ac:dyDescent="0.35">
@@ -28704,8 +28623,8 @@
       <c r="L680" t="s">
         <v>35</v>
       </c>
-      <c r="M680" t="str">
-        <v>High Sales</v>
+      <c r="M680" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="681" spans="1:13" x14ac:dyDescent="0.35">
@@ -28745,8 +28664,8 @@
       <c r="L681" t="s">
         <v>35</v>
       </c>
-      <c r="M681" t="str">
-        <v>High Sales</v>
+      <c r="M681" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="682" spans="1:13" x14ac:dyDescent="0.35">
@@ -28786,8 +28705,8 @@
       <c r="L682" t="s">
         <v>22</v>
       </c>
-      <c r="M682" t="str">
-        <v>High Sales</v>
+      <c r="M682" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="683" spans="1:13" x14ac:dyDescent="0.35">
@@ -28827,8 +28746,8 @@
       <c r="L683" t="s">
         <v>22</v>
       </c>
-      <c r="M683" t="str">
-        <v>High Sales</v>
+      <c r="M683" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="684" spans="1:13" x14ac:dyDescent="0.35">
@@ -28868,8 +28787,8 @@
       <c r="L684" t="s">
         <v>24</v>
       </c>
-      <c r="M684" t="str">
-        <v>High Sales</v>
+      <c r="M684" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="685" spans="1:13" x14ac:dyDescent="0.35">
@@ -28909,8 +28828,8 @@
       <c r="L685" t="s">
         <v>41</v>
       </c>
-      <c r="M685" t="str">
-        <v>High Sales</v>
+      <c r="M685" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="686" spans="1:13" x14ac:dyDescent="0.35">
@@ -28950,8 +28869,8 @@
       <c r="L686" t="s">
         <v>30</v>
       </c>
-      <c r="M686" t="str">
-        <v>High Sales</v>
+      <c r="M686" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="687" spans="1:13" x14ac:dyDescent="0.35">
@@ -28991,8 +28910,8 @@
       <c r="L687" t="s">
         <v>35</v>
       </c>
-      <c r="M687" t="str">
-        <v>High Sales</v>
+      <c r="M687" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="688" spans="1:13" x14ac:dyDescent="0.35">
@@ -29032,8 +28951,8 @@
       <c r="L688" t="s">
         <v>22</v>
       </c>
-      <c r="M688" t="str">
-        <v>High Sales</v>
+      <c r="M688" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="689" spans="1:13" x14ac:dyDescent="0.35">
@@ -29073,8 +28992,8 @@
       <c r="L689" t="s">
         <v>22</v>
       </c>
-      <c r="M689" t="str">
-        <v>High Sales</v>
+      <c r="M689" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="690" spans="1:13" x14ac:dyDescent="0.35">
@@ -29114,8 +29033,8 @@
       <c r="L690" t="s">
         <v>27</v>
       </c>
-      <c r="M690" t="str">
-        <v>High Sales</v>
+      <c r="M690" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="691" spans="1:13" x14ac:dyDescent="0.35">
@@ -29155,8 +29074,8 @@
       <c r="L691" t="s">
         <v>27</v>
       </c>
-      <c r="M691" t="str">
-        <v>High Sales</v>
+      <c r="M691" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="692" spans="1:13" x14ac:dyDescent="0.35">
@@ -29196,8 +29115,8 @@
       <c r="L692" t="s">
         <v>31</v>
       </c>
-      <c r="M692" t="str">
-        <v>High Sales</v>
+      <c r="M692" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="693" spans="1:13" x14ac:dyDescent="0.35">
@@ -29237,8 +29156,8 @@
       <c r="L693" t="s">
         <v>31</v>
       </c>
-      <c r="M693" t="str">
-        <v>High Sales</v>
+      <c r="M693" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="694" spans="1:13" x14ac:dyDescent="0.35">
@@ -29278,8 +29197,8 @@
       <c r="L694" t="s">
         <v>35</v>
       </c>
-      <c r="M694" t="str">
-        <v>High Sales</v>
+      <c r="M694" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="695" spans="1:13" x14ac:dyDescent="0.35">
@@ -29319,8 +29238,8 @@
       <c r="L695" t="s">
         <v>35</v>
       </c>
-      <c r="M695" t="str">
-        <v>High Sales</v>
+      <c r="M695" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="696" spans="1:13" x14ac:dyDescent="0.35">
@@ -29360,8 +29279,8 @@
       <c r="L696" t="s">
         <v>22</v>
       </c>
-      <c r="M696" t="str">
-        <v>High Sales</v>
+      <c r="M696" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="697" spans="1:13" x14ac:dyDescent="0.35">
@@ -29401,8 +29320,8 @@
       <c r="L697" t="s">
         <v>24</v>
       </c>
-      <c r="M697" t="str">
-        <v>High Sales</v>
+      <c r="M697" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="698" spans="1:13" x14ac:dyDescent="0.35">
@@ -29442,8 +29361,8 @@
       <c r="L698" t="s">
         <v>31</v>
       </c>
-      <c r="M698" t="str">
-        <v>High Sales</v>
+      <c r="M698" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="699" spans="1:13" x14ac:dyDescent="0.35">
@@ -29483,8 +29402,8 @@
       <c r="L699" t="s">
         <v>34</v>
       </c>
-      <c r="M699" t="str">
-        <v>High Sales</v>
+      <c r="M699" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="700" spans="1:13" x14ac:dyDescent="0.35">
@@ -29524,8 +29443,8 @@
       <c r="L700" t="s">
         <v>38</v>
       </c>
-      <c r="M700" t="str">
-        <v>High Sales</v>
+      <c r="M700" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="701" spans="1:13" x14ac:dyDescent="0.35">
@@ -29565,8 +29484,8 @@
       <c r="L701" t="s">
         <v>41</v>
       </c>
-      <c r="M701" t="str">
-        <v>High Sales</v>
+      <c r="M701" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -29576,15 +29495,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3CE8F8-B899-4118-94EA-3E8094796812}">
-  <dimension ref="A1:L701"/>
+  <dimension ref="A1:P701"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q68" sqref="Q68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="14" max="14" width="7.08984375" customWidth="1"/>
+    <col min="15" max="15" width="36.54296875" customWidth="1"/>
+    <col min="16" max="16" width="22.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29622,7 +29546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -29660,7 +29584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -29698,7 +29622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -29735,8 +29659,14 @@
       <c r="L4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="O4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="3">
+        <v>4492.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -29773,8 +29703,14 @@
       <c r="L5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="O5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -29811,8 +29747,14 @@
       <c r="L6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="O6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -29849,8 +29791,14 @@
       <c r="L7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="O7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -29887,8 +29835,14 @@
       <c r="L8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="O8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="5">
+        <v>2717329.9799999991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -29925,8 +29879,14 @@
       <c r="L9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="O9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="5">
+        <v>163421.50470297036</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -29963,8 +29923,14 @@
       <c r="L10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="O10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -30001,8 +29967,14 @@
       <c r="L11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="O11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -30039,8 +30011,14 @@
       <c r="L12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="O12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -30077,8 +30055,14 @@
       <c r="L13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="O13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="7">
+        <v>2711919.0300000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -30116,7 +30100,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -30154,7 +30138,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>26</v>
       </c>
